--- a/geralobras.xlsx
+++ b/geralobras.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/18d4a9b92910a370/Documentos/Coorporativo/copilot 2026/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robso\OneDrive\Documentos\Coorporativo\copilot 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13530D1C-26D6-4431-B697-61E16AA24EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213B52F1-559C-4689-80CD-FA0F82CDC3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="9" activeTab="9" xr2:uid="{85042D99-AF67-46D0-BBD8-7613075613E7}"/>
   </bookViews>
@@ -23,26 +23,23 @@
     <sheet name="Planilha2" sheetId="12" state="hidden" r:id="rId8"/>
     <sheet name="Planilha5" sheetId="16" state="hidden" r:id="rId9"/>
     <sheet name="ASFALTOS" sheetId="17" r:id="rId10"/>
-    <sheet name="OBRAS DIVERSAS" sheetId="15" r:id="rId11"/>
-    <sheet name="Planilha3" sheetId="19" state="hidden" r:id="rId12"/>
-    <sheet name="geral 2" sheetId="18" state="hidden" r:id="rId13"/>
-    <sheet name="g" sheetId="13" state="hidden" r:id="rId14"/>
-    <sheet name="Planilha4" sheetId="14" state="hidden" r:id="rId15"/>
-    <sheet name="ETAPA 2" sheetId="11" state="hidden" r:id="rId16"/>
-    <sheet name="opcao 2" sheetId="2" state="hidden" r:id="rId17"/>
-    <sheet name="a primeira" sheetId="3" state="hidden" r:id="rId18"/>
+    <sheet name="Planilha3" sheetId="19" state="hidden" r:id="rId11"/>
+    <sheet name="geral 2" sheetId="18" state="hidden" r:id="rId12"/>
+    <sheet name="g" sheetId="13" state="hidden" r:id="rId13"/>
+    <sheet name="Planilha4" sheetId="14" state="hidden" r:id="rId14"/>
+    <sheet name="ETAPA 2" sheetId="11" state="hidden" r:id="rId15"/>
+    <sheet name="opcao 2" sheetId="2" state="hidden" r:id="rId16"/>
+    <sheet name="a primeira" sheetId="3" state="hidden" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">ASFALTOS!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'geral 2'!$C$6:$H$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'OBRAS DIVERSAS'!$B$2:$H$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'geral 2'!$C$6:$H$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'opcao 1'!$C$7:$E$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Planilha2!$D$62:$J$62</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="9">ASFALTOS!$A$45:$H$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">ASFALTOS!$A$14:$G$23</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'etapa 1 asfalto'!$G$7:$J$33</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'etapa 2 asfalto'!$E$3:$G$14</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="12">'geral 2'!$C$6:$H$45</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="10">'OBRAS DIVERSAS'!$B$2:$H$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="11">'geral 2'!$C$6:$H$45</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'opcao 1'!$C$3:$E$23</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">Planilha1!$F$7:$I$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">Planilha2!$D$2:$J$94</definedName>
@@ -68,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3204" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2640" uniqueCount="472">
   <si>
     <t>Indicações Asfalto Janeiro 2025</t>
   </si>
@@ -1494,9 +1491,6 @@
     <t>PUBLICAÇÃO DA OS</t>
   </si>
   <si>
-    <t>OS. PUBLICADAS</t>
-  </si>
-  <si>
     <t>Solicitação Medição</t>
   </si>
   <si>
@@ -1510,9 +1504,6 @@
   </si>
   <si>
     <t>00317.000119/2026-66</t>
-  </si>
-  <si>
-    <t>Extra</t>
   </si>
 </sst>
 </file>
@@ -2294,7 +2285,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="251">
+  <cellXfs count="242">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2792,9 +2783,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2818,14 +2806,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="34" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2870,9 +2850,6 @@
     <xf numFmtId="0" fontId="19" fillId="17" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="30" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2891,16 +2868,6 @@
     <xf numFmtId="0" fontId="34" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2912,14 +2879,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="34" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -5384,1313 +5358,621 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N57"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.88671875" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="36.21875" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="29.5546875" customWidth="1"/>
-    <col min="6" max="6" width="22.21875" style="71" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.44140625" customWidth="1"/>
-    <col min="8" max="8" width="21.21875" customWidth="1"/>
-    <col min="9" max="9" width="20.109375" style="72" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="19.109375" style="72" customWidth="1"/>
-    <col min="12" max="12" width="21.21875" customWidth="1"/>
-    <col min="13" max="13" width="12.5546875" style="71" customWidth="1"/>
-    <col min="14" max="14" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.21875" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="29.5546875" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" style="71" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.109375" style="72" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="72" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" style="72" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.21875" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" style="71" customWidth="1"/>
+    <col min="13" max="13" width="26.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1" s="142"/>
-      <c r="N1" s="71"/>
-    </row>
-    <row r="2" spans="1:14" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="71"/>
-      <c r="N2" s="71"/>
-    </row>
-    <row r="3" spans="1:14" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="129" t="s">
+    <row r="1" spans="1:11" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="129" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="129" t="s">
+      <c r="B1" s="207" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="129" t="s">
+      <c r="C1" s="207" t="s">
         <v>407</v>
       </c>
-      <c r="E3" s="129" t="s">
+      <c r="D1" s="207" t="s">
         <v>103</v>
       </c>
-      <c r="F3" s="129"/>
-      <c r="G3" s="129" t="s">
-        <v>334</v>
-      </c>
-      <c r="H3" s="130" t="s">
+      <c r="E1" s="207" t="s">
+        <v>470</v>
+      </c>
+      <c r="F1" s="207" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="207" t="s">
+        <v>466</v>
+      </c>
+      <c r="H1" s="226" t="s">
+        <v>467</v>
+      </c>
+      <c r="I1" s="226" t="s">
+        <v>469</v>
+      </c>
+      <c r="J1" s="226" t="s">
+        <v>468</v>
+      </c>
+      <c r="K1" s="207" t="s">
         <v>82</v>
       </c>
-      <c r="M3"/>
-    </row>
-    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="126" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="126" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="126" t="s">
-        <v>111</v>
-      </c>
-      <c r="D4" s="125"/>
-      <c r="E4" s="125" t="s">
-        <v>117</v>
-      </c>
-      <c r="F4" s="125"/>
-      <c r="G4" s="168" t="s">
-        <v>143</v>
-      </c>
-      <c r="H4" s="127">
-        <v>1406987.08</v>
-      </c>
-      <c r="M4"/>
-    </row>
-    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="119" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="119" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="119" t="s">
-        <v>112</v>
-      </c>
-      <c r="D5" s="118"/>
-      <c r="E5" s="118" t="s">
-        <v>119</v>
-      </c>
-      <c r="F5" s="125"/>
-      <c r="G5" s="168" t="s">
-        <v>143</v>
-      </c>
-      <c r="H5" s="120">
-        <v>442113.46</v>
-      </c>
-      <c r="M5"/>
-    </row>
-    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="119" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="119" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="119" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6" s="118"/>
-      <c r="E6" s="118" t="s">
-        <v>121</v>
-      </c>
-      <c r="F6" s="125"/>
-      <c r="G6" s="168" t="s">
-        <v>143</v>
-      </c>
-      <c r="H6" s="120">
-        <v>1841314.24</v>
-      </c>
-      <c r="M6"/>
-    </row>
-    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="119" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="119" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="119" t="s">
-        <v>107</v>
-      </c>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118" t="s">
-        <v>123</v>
-      </c>
-      <c r="F7" s="118"/>
-      <c r="G7" s="164" t="s">
-        <v>335</v>
-      </c>
-      <c r="H7" s="120">
-        <v>1474215.57</v>
-      </c>
-      <c r="M7"/>
-    </row>
-    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="211" t="s">
+    </row>
+    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A2" s="199" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="200" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="200" t="s">
+        <v>411</v>
+      </c>
+      <c r="D2" s="200" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" s="200"/>
+      <c r="F2" s="200" t="s">
+        <v>413</v>
+      </c>
+      <c r="G2" s="201">
+        <v>46048</v>
+      </c>
+      <c r="H2" s="227"/>
+      <c r="I2" s="227"/>
+      <c r="J2" s="227"/>
+      <c r="K2" s="202">
+        <v>908033.58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A3" s="203" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="204" t="s">
+        <v>410</v>
+      </c>
+      <c r="C3" s="204" t="s">
+        <v>409</v>
+      </c>
+      <c r="D3" s="204" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" s="204"/>
+      <c r="F3" s="204" t="s">
+        <v>413</v>
+      </c>
+      <c r="G3" s="205">
+        <v>46048</v>
+      </c>
+      <c r="H3" s="228"/>
+      <c r="I3" s="228"/>
+      <c r="J3" s="228"/>
+      <c r="K3" s="206">
+        <v>993340.67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A4" s="203" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="204" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="204" t="s">
+        <v>409</v>
+      </c>
+      <c r="D4" s="204" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" s="204"/>
+      <c r="F4" s="204" t="s">
+        <v>413</v>
+      </c>
+      <c r="G4" s="205">
+        <v>46048</v>
+      </c>
+      <c r="H4" s="228"/>
+      <c r="I4" s="228"/>
+      <c r="J4" s="228"/>
+      <c r="K4" s="206">
+        <v>1320819.46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A5" s="203" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="204" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="204" t="s">
+        <v>411</v>
+      </c>
+      <c r="D5" s="204" t="s">
+        <v>412</v>
+      </c>
+      <c r="E5" s="204"/>
+      <c r="F5" s="204" t="s">
+        <v>413</v>
+      </c>
+      <c r="G5" s="205">
+        <v>46048</v>
+      </c>
+      <c r="H5" s="228"/>
+      <c r="I5" s="228"/>
+      <c r="J5" s="228"/>
+      <c r="K5" s="206">
+        <v>950657.62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A6" s="203" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="204" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="204" t="s">
+        <v>409</v>
+      </c>
+      <c r="D6" s="231" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="204"/>
+      <c r="F6" s="204" t="s">
+        <v>413</v>
+      </c>
+      <c r="G6" s="205">
+        <v>46048</v>
+      </c>
+      <c r="H6" s="228"/>
+      <c r="I6" s="228"/>
+      <c r="J6" s="228"/>
+      <c r="K6" s="206">
+        <v>3416482.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A7" s="203" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="204" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="204" t="s">
+        <v>408</v>
+      </c>
+      <c r="D7" s="204" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" s="204"/>
+      <c r="F7" s="204" t="s">
+        <v>413</v>
+      </c>
+      <c r="G7" s="205">
+        <v>46048</v>
+      </c>
+      <c r="H7" s="228"/>
+      <c r="I7" s="228"/>
+      <c r="J7" s="228"/>
+      <c r="K7" s="206">
+        <v>1048606.3500000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A8" s="203" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="204" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="204" t="s">
+        <v>409</v>
+      </c>
+      <c r="D8" s="231" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="204"/>
+      <c r="F8" s="204" t="s">
+        <v>413</v>
+      </c>
+      <c r="G8" s="205">
+        <v>46048</v>
+      </c>
+      <c r="H8" s="228"/>
+      <c r="I8" s="229"/>
+      <c r="J8" s="229"/>
+      <c r="K8" s="209">
+        <v>950664.72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A9" s="199" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="200" t="s">
+        <v>421</v>
+      </c>
+      <c r="C9" s="200" t="s">
+        <v>411</v>
+      </c>
+      <c r="D9" s="200" t="s">
+        <v>250</v>
+      </c>
+      <c r="E9" s="200"/>
+      <c r="F9" s="204" t="s">
+        <v>413</v>
+      </c>
+      <c r="G9" s="205">
+        <v>46049</v>
+      </c>
+      <c r="H9" s="228"/>
+      <c r="I9" s="227"/>
+      <c r="J9" s="227"/>
+      <c r="K9" s="202">
+        <v>1487210.27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A10" s="199" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="200" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="200" t="s">
+        <v>415</v>
+      </c>
+      <c r="D10" s="200" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" s="200"/>
+      <c r="F10" s="204" t="s">
+        <v>413</v>
+      </c>
+      <c r="G10" s="205">
+        <v>46049</v>
+      </c>
+      <c r="H10" s="228"/>
+      <c r="I10" s="227"/>
+      <c r="J10" s="227"/>
+      <c r="K10" s="202">
+        <v>175308.48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A11" s="199" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="200" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="200" t="s">
+        <v>415</v>
+      </c>
+      <c r="D11" s="200" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" s="200"/>
+      <c r="F11" s="204" t="s">
+        <v>413</v>
+      </c>
+      <c r="G11" s="205">
+        <v>46049</v>
+      </c>
+      <c r="H11" s="228"/>
+      <c r="I11" s="227"/>
+      <c r="J11" s="227"/>
+      <c r="K11" s="202">
+        <v>1999962.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A12" s="199" t="s">
+        <v>242</v>
+      </c>
+      <c r="B12" s="200" t="s">
+        <v>422</v>
+      </c>
+      <c r="C12" s="200" t="s">
+        <v>411</v>
+      </c>
+      <c r="D12" s="200" t="s">
+        <v>251</v>
+      </c>
+      <c r="E12" s="200" t="s">
+        <v>471</v>
+      </c>
+      <c r="F12" s="204" t="s">
+        <v>413</v>
+      </c>
+      <c r="G12" s="205">
+        <v>46049</v>
+      </c>
+      <c r="H12" s="228">
+        <v>933144.11</v>
+      </c>
+      <c r="I12" s="227"/>
+      <c r="J12" s="227"/>
+      <c r="K12" s="202">
+        <v>960276.87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A13" s="199" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="200" t="s">
+        <v>423</v>
+      </c>
+      <c r="C13" s="200" t="s">
+        <v>411</v>
+      </c>
+      <c r="D13" s="200" t="s">
+        <v>249</v>
+      </c>
+      <c r="E13" s="200"/>
+      <c r="F13" s="204" t="s">
+        <v>413</v>
+      </c>
+      <c r="G13" s="205">
+        <v>46049</v>
+      </c>
+      <c r="H13" s="228">
+        <v>1461860.68</v>
+      </c>
+      <c r="I13" s="227"/>
+      <c r="J13" s="227"/>
+      <c r="K13" s="202">
+        <v>1461860.68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A14" s="199" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="119" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" s="119" t="s">
+      <c r="B14" s="200" t="s">
         <v>128</v>
       </c>
-      <c r="D8" s="118"/>
-      <c r="E8" s="118" t="s">
+      <c r="C14" s="200" t="s">
+        <v>414</v>
+      </c>
+      <c r="D14" s="200" t="s">
         <v>125</v>
       </c>
-      <c r="F8" s="118"/>
-      <c r="G8" s="169" t="s">
-        <v>336</v>
-      </c>
-      <c r="H8" s="213">
+      <c r="E14" s="200"/>
+      <c r="F14" s="208" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" s="208"/>
+      <c r="H14" s="230"/>
+      <c r="I14" s="230"/>
+      <c r="J14" s="230"/>
+      <c r="K14" s="202">
         <v>1001012.24</v>
       </c>
-      <c r="M8"/>
-    </row>
-    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="197" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="197" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" s="197" t="s">
-        <v>139</v>
-      </c>
-      <c r="D9" s="199" t="s">
-        <v>411</v>
-      </c>
-      <c r="E9" s="199" t="s">
-        <v>138</v>
-      </c>
-      <c r="F9" s="199"/>
-      <c r="G9" s="169" t="s">
-        <v>336</v>
-      </c>
-      <c r="H9" s="198">
-        <v>908033.58</v>
-      </c>
-      <c r="M9"/>
-    </row>
-    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="197" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="197" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" s="197" t="s">
-        <v>108</v>
-      </c>
-      <c r="D10" s="199" t="s">
-        <v>411</v>
-      </c>
-      <c r="E10" s="199" t="s">
-        <v>412</v>
-      </c>
-      <c r="F10" s="199"/>
-      <c r="G10" s="169" t="s">
-        <v>336</v>
-      </c>
-      <c r="H10" s="198">
-        <v>950657.62</v>
-      </c>
-      <c r="M10"/>
-    </row>
-    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="197" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="197" t="s">
-        <v>130</v>
-      </c>
-      <c r="C11" s="197" t="s">
-        <v>113</v>
-      </c>
-      <c r="D11" s="199" t="s">
-        <v>409</v>
-      </c>
-      <c r="E11" s="199" t="s">
-        <v>120</v>
-      </c>
-      <c r="F11" s="199"/>
-      <c r="G11" s="169" t="s">
-        <v>336</v>
-      </c>
-      <c r="H11" s="198">
-        <v>950664.72</v>
-      </c>
-      <c r="M11"/>
-    </row>
-    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="211" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="119" t="s">
-        <v>337</v>
-      </c>
-      <c r="C12" s="119" t="s">
-        <v>340</v>
-      </c>
-      <c r="D12" s="118"/>
-      <c r="E12" s="118" t="s">
-        <v>249</v>
-      </c>
-      <c r="F12" s="118"/>
-      <c r="G12" s="169" t="s">
-        <v>336</v>
-      </c>
-      <c r="H12" s="213">
-        <v>1500000</v>
-      </c>
-      <c r="M12"/>
-    </row>
-    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="211" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="119" t="s">
-        <v>338</v>
-      </c>
-      <c r="C13" s="119" t="s">
-        <v>340</v>
-      </c>
-      <c r="D13" s="118"/>
-      <c r="E13" s="118" t="s">
-        <v>250</v>
-      </c>
-      <c r="F13" s="118"/>
-      <c r="G13" s="169" t="s">
-        <v>336</v>
-      </c>
-      <c r="H13" s="213">
-        <v>1500000</v>
-      </c>
-      <c r="M13"/>
-    </row>
-    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="211" t="s">
-        <v>242</v>
-      </c>
-      <c r="B14" s="119" t="s">
-        <v>339</v>
-      </c>
-      <c r="C14" s="119" t="s">
-        <v>341</v>
-      </c>
-      <c r="D14" s="118"/>
-      <c r="E14" s="118" t="s">
-        <v>251</v>
-      </c>
-      <c r="F14" s="118"/>
-      <c r="G14" s="169" t="s">
-        <v>336</v>
-      </c>
-      <c r="H14" s="213">
+    </row>
+    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A15" s="199" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" s="200" t="s">
+        <v>419</v>
+      </c>
+      <c r="C15" s="200" t="s">
+        <v>414</v>
+      </c>
+      <c r="D15" s="200" t="s">
+        <v>417</v>
+      </c>
+      <c r="E15" s="200"/>
+      <c r="F15" s="208" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" s="208"/>
+      <c r="H15" s="230"/>
+      <c r="I15" s="230"/>
+      <c r="J15" s="230"/>
+      <c r="K15" s="202">
         <v>1000000</v>
       </c>
-      <c r="M14"/>
-    </row>
-    <row r="15" spans="1:14" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="121"/>
-      <c r="B15" s="121"/>
-      <c r="C15" s="121"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="121"/>
-      <c r="F15" s="121"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="231"/>
-      <c r="J15" s="231"/>
-      <c r="K15" s="231"/>
-      <c r="L15" s="121"/>
-      <c r="N15" s="122" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="147"/>
-      <c r="B16" s="147"/>
-      <c r="C16" s="147"/>
-      <c r="D16" s="147"/>
-      <c r="E16" s="147"/>
-      <c r="F16" s="147"/>
-      <c r="G16" s="147"/>
-      <c r="H16" s="147"/>
-      <c r="I16" s="148"/>
-      <c r="J16" s="148"/>
-      <c r="K16" s="148"/>
-      <c r="L16" s="147"/>
-      <c r="N16" s="71"/>
-    </row>
-    <row r="17" spans="1:14" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="129" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="129" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="129" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" s="129" t="s">
-        <v>407</v>
-      </c>
-      <c r="E17" s="129" t="s">
-        <v>103</v>
-      </c>
-      <c r="F17" s="129"/>
-      <c r="G17" s="129" t="s">
-        <v>334</v>
-      </c>
-      <c r="H17" s="130" t="s">
-        <v>82</v>
-      </c>
-      <c r="M17"/>
-    </row>
-    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="211" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="119" t="s">
-        <v>85</v>
-      </c>
-      <c r="C18" s="119" t="s">
-        <v>106</v>
-      </c>
-      <c r="D18" s="118"/>
-      <c r="E18" s="118" t="s">
-        <v>118</v>
-      </c>
-      <c r="F18" s="118"/>
-      <c r="G18" s="169" t="s">
-        <v>336</v>
-      </c>
-      <c r="H18" s="213">
-        <v>175308.48</v>
-      </c>
-      <c r="M18"/>
-    </row>
-    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="212" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="150" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="150" t="s">
-        <v>109</v>
-      </c>
-      <c r="D19" s="170"/>
-      <c r="E19" s="170" t="s">
-        <v>114</v>
-      </c>
-      <c r="F19" s="170"/>
-      <c r="G19" s="169" t="s">
-        <v>336</v>
-      </c>
-      <c r="H19" s="214">
-        <v>1999962.2</v>
-      </c>
-      <c r="M19"/>
-    </row>
-    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="197" t="s">
+    </row>
+    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A16" s="199" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="200" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="200" t="s">
+        <v>414</v>
+      </c>
+      <c r="D16" s="200" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16" s="200"/>
+      <c r="F16" s="208" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" s="208"/>
+      <c r="H16" s="230"/>
+      <c r="I16" s="230"/>
+      <c r="J16" s="230"/>
+      <c r="K16" s="202">
+        <v>6464841.9500000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.3">
+      <c r="A17" s="199" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="200" t="s">
+        <v>418</v>
+      </c>
+      <c r="C17" s="200" t="s">
+        <v>408</v>
+      </c>
+      <c r="D17" s="200" t="s">
+        <v>170</v>
+      </c>
+      <c r="E17" s="200"/>
+      <c r="F17" s="208" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" s="208"/>
+      <c r="H17" s="230"/>
+      <c r="I17" s="230"/>
+      <c r="J17" s="230"/>
+      <c r="K17" s="202">
+        <v>3023307.47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15" x14ac:dyDescent="0.3">
+      <c r="A18" s="232" t="s">
+        <v>156</v>
+      </c>
+      <c r="B18" s="233" t="s">
+        <v>420</v>
+      </c>
+      <c r="C18" s="233" t="s">
+        <v>414</v>
+      </c>
+      <c r="D18" s="233" t="s">
+        <v>416</v>
+      </c>
+      <c r="E18" s="233"/>
+      <c r="F18" s="234" t="s">
+        <v>100</v>
+      </c>
+      <c r="G18" s="234"/>
+      <c r="H18" s="235"/>
+      <c r="I18" s="235"/>
+      <c r="J18" s="235"/>
+      <c r="K18" s="236">
+        <v>768865.27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15" x14ac:dyDescent="0.3">
+      <c r="A19" s="203" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="204" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="204" t="s">
+        <v>255</v>
+      </c>
+      <c r="D19" s="203" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" s="118"/>
+      <c r="F19" s="204" t="s">
+        <v>350</v>
+      </c>
+      <c r="G19" s="237"/>
+      <c r="H19" s="238"/>
+      <c r="I19" s="238"/>
+      <c r="J19" s="238"/>
+      <c r="K19" s="206">
+        <v>1000000</v>
+      </c>
+      <c r="L19"/>
+    </row>
+    <row r="20" spans="1:12" ht="15" x14ac:dyDescent="0.3">
+      <c r="A20" s="119" t="s">
+        <v>247</v>
+      </c>
+      <c r="B20" s="204" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="204" t="s">
+        <v>255</v>
+      </c>
+      <c r="D20" s="203" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" s="118"/>
+      <c r="F20" s="204" t="s">
+        <v>350</v>
+      </c>
+      <c r="G20" s="119"/>
+      <c r="H20" s="120"/>
+      <c r="I20" s="120"/>
+      <c r="J20" s="120"/>
+      <c r="K20" s="206">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15" x14ac:dyDescent="0.3">
+      <c r="A21" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="197" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" s="197" t="s">
-        <v>127</v>
-      </c>
-      <c r="D20" s="199" t="s">
-        <v>409</v>
-      </c>
-      <c r="E20" s="199" t="s">
-        <v>124</v>
-      </c>
-      <c r="F20" s="199"/>
-      <c r="G20" s="169" t="s">
-        <v>336</v>
-      </c>
-      <c r="H20" s="198">
-        <v>3416482.25</v>
-      </c>
-      <c r="M20"/>
-    </row>
-    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="197" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="197" t="s">
-        <v>89</v>
-      </c>
-      <c r="C21" s="197" t="s">
-        <v>129</v>
-      </c>
-      <c r="D21" s="199" t="s">
-        <v>408</v>
-      </c>
-      <c r="E21" s="199" t="s">
-        <v>126</v>
-      </c>
-      <c r="F21" s="199"/>
-      <c r="G21" s="169" t="s">
-        <v>336</v>
-      </c>
-      <c r="H21" s="198">
-        <v>1048606.3500000001</v>
-      </c>
-      <c r="M21"/>
-    </row>
-    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="197" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="197" t="s">
-        <v>169</v>
-      </c>
-      <c r="C22" s="197" t="s">
-        <v>137</v>
-      </c>
-      <c r="D22" s="199" t="s">
-        <v>409</v>
-      </c>
-      <c r="E22" s="199" t="s">
-        <v>136</v>
-      </c>
-      <c r="F22" s="199"/>
-      <c r="G22" s="169" t="s">
-        <v>336</v>
-      </c>
-      <c r="H22" s="198">
-        <v>1320819.46</v>
-      </c>
-      <c r="M22"/>
-    </row>
-    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="211" t="s">
-        <v>78</v>
-      </c>
-      <c r="B23" s="119" t="s">
-        <v>133</v>
-      </c>
-      <c r="C23" s="119" t="s">
-        <v>142</v>
-      </c>
-      <c r="D23" s="118"/>
-      <c r="E23" s="118" t="s">
-        <v>170</v>
-      </c>
-      <c r="F23" s="118"/>
-      <c r="G23" s="169" t="s">
-        <v>336</v>
-      </c>
-      <c r="H23" s="213">
-        <v>3000000</v>
-      </c>
-      <c r="M23"/>
-    </row>
-    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="211" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="119" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" s="119" t="s">
+      <c r="B21" s="204" t="s">
         <v>104</v>
       </c>
-      <c r="D24" s="118"/>
-      <c r="E24" s="118" t="s">
-        <v>144</v>
-      </c>
-      <c r="F24" s="118"/>
-      <c r="G24" s="169" t="s">
-        <v>336</v>
-      </c>
-      <c r="H24" s="213">
-        <v>6464841.9500000002</v>
-      </c>
-      <c r="M24"/>
-    </row>
-    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="197" t="s">
-        <v>134</v>
-      </c>
-      <c r="B25" s="197" t="s">
-        <v>135</v>
-      </c>
-      <c r="C25" s="197" t="s">
-        <v>410</v>
-      </c>
-      <c r="D25" s="199" t="s">
-        <v>409</v>
-      </c>
-      <c r="E25" s="199" t="s">
-        <v>140</v>
-      </c>
-      <c r="F25" s="199"/>
-      <c r="G25" s="169" t="s">
-        <v>336</v>
-      </c>
-      <c r="H25" s="198">
-        <v>993340.67</v>
-      </c>
-      <c r="M25"/>
-    </row>
-    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="211" t="s">
-        <v>155</v>
-      </c>
-      <c r="B26" s="119" t="s">
-        <v>158</v>
-      </c>
-      <c r="C26" s="119" t="s">
+      <c r="C21" s="204" t="s">
+        <v>255</v>
+      </c>
+      <c r="D21" s="203" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="118"/>
+      <c r="F21" s="204" t="s">
+        <v>350</v>
+      </c>
+      <c r="G21" s="119"/>
+      <c r="H21" s="120"/>
+      <c r="I21" s="120"/>
+      <c r="J21" s="120"/>
+      <c r="K21" s="206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15" x14ac:dyDescent="0.3">
+      <c r="A22" s="119" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="204" t="s">
         <v>104</v>
       </c>
-      <c r="D26" s="118"/>
-      <c r="E26" s="118" t="s">
+      <c r="C22" s="204" t="s">
+        <v>255</v>
+      </c>
+      <c r="D22" s="203" t="s">
         <v>99</v>
       </c>
-      <c r="F26" s="118"/>
-      <c r="G26" s="118" t="s">
-        <v>342</v>
-      </c>
-      <c r="H26" s="213">
-        <v>1000000</v>
-      </c>
-      <c r="M26"/>
-    </row>
-    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="211" t="s">
-        <v>156</v>
-      </c>
-      <c r="B27" s="119" t="s">
-        <v>160</v>
-      </c>
-      <c r="C27" s="119" t="s">
-        <v>104</v>
-      </c>
-      <c r="D27" s="118"/>
-      <c r="E27" s="118" t="s">
-        <v>99</v>
-      </c>
-      <c r="F27" s="118"/>
-      <c r="G27" s="118" t="s">
-        <v>342</v>
-      </c>
-      <c r="H27" s="213">
-        <v>800000</v>
-      </c>
-      <c r="M27"/>
-    </row>
-    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="211" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="119" t="s">
-        <v>98</v>
-      </c>
-      <c r="C28" s="119" t="s">
-        <v>104</v>
-      </c>
-      <c r="D28" s="118"/>
-      <c r="E28" s="118" t="s">
-        <v>99</v>
-      </c>
-      <c r="F28" s="118"/>
-      <c r="G28" s="118" t="s">
-        <v>342</v>
-      </c>
-      <c r="H28" s="213">
-        <v>1000000</v>
-      </c>
-      <c r="M28"/>
-    </row>
-    <row r="29" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="121"/>
-      <c r="B29" s="121"/>
-      <c r="C29" s="121"/>
-      <c r="D29" s="121"/>
-      <c r="E29" s="121"/>
-      <c r="F29" s="121"/>
-      <c r="G29" s="121"/>
-      <c r="H29" s="121"/>
-      <c r="I29" s="231"/>
-      <c r="J29" s="231"/>
-      <c r="K29" s="231"/>
-      <c r="L29" s="121"/>
-      <c r="M29" s="121"/>
-      <c r="N29" s="71"/>
-    </row>
-    <row r="30" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="70" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="2.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:14" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="208" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32" s="208" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" s="208" t="s">
-        <v>102</v>
-      </c>
-      <c r="D32" s="208" t="s">
-        <v>407</v>
-      </c>
-      <c r="E32" s="208" t="s">
-        <v>103</v>
-      </c>
-      <c r="F32" s="208" t="s">
-        <v>471</v>
-      </c>
-      <c r="G32" s="208" t="s">
-        <v>92</v>
-      </c>
-      <c r="H32" s="208" t="s">
-        <v>466</v>
-      </c>
-      <c r="I32" s="232" t="s">
-        <v>468</v>
-      </c>
-      <c r="J32" s="232" t="s">
-        <v>470</v>
-      </c>
-      <c r="K32" s="232" t="s">
-        <v>469</v>
-      </c>
-      <c r="L32" s="208" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A33" s="200" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" s="200" t="s">
-        <v>97</v>
-      </c>
-      <c r="C33" s="201" t="s">
-        <v>139</v>
-      </c>
-      <c r="D33" s="201" t="s">
-        <v>411</v>
-      </c>
-      <c r="E33" s="201" t="s">
-        <v>138</v>
-      </c>
-      <c r="F33" s="201"/>
-      <c r="G33" s="201" t="s">
-        <v>413</v>
-      </c>
-      <c r="H33" s="202">
-        <v>46048</v>
-      </c>
-      <c r="I33" s="233"/>
-      <c r="J33" s="233"/>
-      <c r="K33" s="233"/>
-      <c r="L33" s="203">
-        <v>908033.58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A34" s="204" t="s">
-        <v>134</v>
-      </c>
-      <c r="B34" s="204" t="s">
-        <v>135</v>
-      </c>
-      <c r="C34" s="205" t="s">
-        <v>410</v>
-      </c>
-      <c r="D34" s="205" t="s">
-        <v>409</v>
-      </c>
-      <c r="E34" s="205" t="s">
-        <v>140</v>
-      </c>
-      <c r="F34" s="205"/>
-      <c r="G34" s="205" t="s">
-        <v>413</v>
-      </c>
-      <c r="H34" s="206">
-        <v>46048</v>
-      </c>
-      <c r="I34" s="234"/>
-      <c r="J34" s="234"/>
-      <c r="K34" s="234"/>
-      <c r="L34" s="207">
-        <v>993340.67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A35" s="204" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" s="204" t="s">
-        <v>169</v>
-      </c>
-      <c r="C35" s="205" t="s">
-        <v>137</v>
-      </c>
-      <c r="D35" s="205" t="s">
-        <v>409</v>
-      </c>
-      <c r="E35" s="205" t="s">
-        <v>136</v>
-      </c>
-      <c r="F35" s="205"/>
-      <c r="G35" s="205" t="s">
-        <v>413</v>
-      </c>
-      <c r="H35" s="206">
-        <v>46048</v>
-      </c>
-      <c r="I35" s="234"/>
-      <c r="J35" s="234"/>
-      <c r="K35" s="234"/>
-      <c r="L35" s="207">
-        <v>1320819.46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A36" s="204" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="204" t="s">
-        <v>87</v>
-      </c>
-      <c r="C36" s="205" t="s">
-        <v>108</v>
-      </c>
-      <c r="D36" s="205" t="s">
-        <v>411</v>
-      </c>
-      <c r="E36" s="205" t="s">
-        <v>412</v>
-      </c>
-      <c r="F36" s="205"/>
-      <c r="G36" s="205" t="s">
-        <v>413</v>
-      </c>
-      <c r="H36" s="206">
-        <v>46048</v>
-      </c>
-      <c r="I36" s="234"/>
-      <c r="J36" s="234"/>
-      <c r="K36" s="234"/>
-      <c r="L36" s="207">
-        <v>950657.62</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A37" s="204" t="s">
-        <v>67</v>
-      </c>
-      <c r="B37" s="204" t="s">
-        <v>88</v>
-      </c>
-      <c r="C37" s="205" t="s">
-        <v>127</v>
-      </c>
-      <c r="D37" s="205" t="s">
-        <v>409</v>
-      </c>
-      <c r="E37" s="237" t="s">
-        <v>124</v>
-      </c>
-      <c r="F37" s="205"/>
-      <c r="G37" s="205" t="s">
-        <v>413</v>
-      </c>
-      <c r="H37" s="206">
-        <v>46048</v>
-      </c>
-      <c r="I37" s="234"/>
-      <c r="J37" s="234"/>
-      <c r="K37" s="234"/>
-      <c r="L37" s="207">
-        <v>3416482.25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A38" s="204" t="s">
-        <v>30</v>
-      </c>
-      <c r="B38" s="204" t="s">
-        <v>89</v>
-      </c>
-      <c r="C38" s="205" t="s">
-        <v>129</v>
-      </c>
-      <c r="D38" s="205" t="s">
-        <v>408</v>
-      </c>
-      <c r="E38" s="205" t="s">
-        <v>126</v>
-      </c>
-      <c r="F38" s="205"/>
-      <c r="G38" s="205" t="s">
-        <v>413</v>
-      </c>
-      <c r="H38" s="206">
-        <v>46048</v>
-      </c>
-      <c r="I38" s="234"/>
-      <c r="J38" s="234"/>
-      <c r="K38" s="234"/>
-      <c r="L38" s="207">
-        <v>1048606.3500000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A39" s="204" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" s="204" t="s">
-        <v>130</v>
-      </c>
-      <c r="C39" s="205" t="s">
-        <v>113</v>
-      </c>
-      <c r="D39" s="205" t="s">
-        <v>409</v>
-      </c>
-      <c r="E39" s="237" t="s">
-        <v>120</v>
-      </c>
-      <c r="F39" s="205"/>
-      <c r="G39" s="205" t="s">
-        <v>413</v>
-      </c>
-      <c r="H39" s="206">
-        <v>46048</v>
-      </c>
-      <c r="I39" s="234"/>
-      <c r="J39" s="235"/>
-      <c r="K39" s="235"/>
-      <c r="L39" s="210">
-        <v>950664.72</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A40" s="200" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" s="200" t="s">
-        <v>338</v>
-      </c>
-      <c r="C40" s="201" t="s">
-        <v>421</v>
-      </c>
-      <c r="D40" s="201" t="s">
-        <v>411</v>
-      </c>
-      <c r="E40" s="201" t="s">
-        <v>250</v>
-      </c>
-      <c r="F40" s="201"/>
-      <c r="G40" s="205" t="s">
-        <v>413</v>
-      </c>
-      <c r="H40" s="206">
-        <v>46049</v>
-      </c>
-      <c r="I40" s="234"/>
-      <c r="J40" s="233"/>
-      <c r="K40" s="233"/>
-      <c r="L40" s="203">
-        <v>1487210.27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A41" s="200" t="s">
-        <v>15</v>
-      </c>
-      <c r="B41" s="200" t="s">
-        <v>85</v>
-      </c>
-      <c r="C41" s="201" t="s">
-        <v>106</v>
-      </c>
-      <c r="D41" s="201" t="s">
-        <v>415</v>
-      </c>
-      <c r="E41" s="201" t="s">
-        <v>118</v>
-      </c>
-      <c r="F41" s="201"/>
-      <c r="G41" s="205" t="s">
-        <v>413</v>
-      </c>
-      <c r="H41" s="206">
-        <v>46049</v>
-      </c>
-      <c r="I41" s="234"/>
-      <c r="J41" s="233"/>
-      <c r="K41" s="233"/>
-      <c r="L41" s="203">
-        <v>175308.48</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A42" s="200" t="s">
-        <v>25</v>
-      </c>
-      <c r="B42" s="200" t="s">
-        <v>60</v>
-      </c>
-      <c r="C42" s="201" t="s">
-        <v>109</v>
-      </c>
-      <c r="D42" s="201" t="s">
-        <v>415</v>
-      </c>
-      <c r="E42" s="201" t="s">
-        <v>114</v>
-      </c>
-      <c r="F42" s="201"/>
-      <c r="G42" s="205" t="s">
-        <v>413</v>
-      </c>
-      <c r="H42" s="206">
-        <v>46049</v>
-      </c>
-      <c r="I42" s="234"/>
-      <c r="J42" s="233"/>
-      <c r="K42" s="233"/>
-      <c r="L42" s="203">
-        <v>1999962.2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A43" s="200" t="s">
-        <v>242</v>
-      </c>
-      <c r="B43" s="200" t="s">
-        <v>339</v>
-      </c>
-      <c r="C43" s="201" t="s">
-        <v>422</v>
-      </c>
-      <c r="D43" s="201" t="s">
-        <v>411</v>
-      </c>
-      <c r="E43" s="201" t="s">
-        <v>251</v>
-      </c>
-      <c r="F43" s="201" t="s">
-        <v>472</v>
-      </c>
-      <c r="G43" s="205" t="s">
-        <v>413</v>
-      </c>
-      <c r="H43" s="206">
-        <v>46049</v>
-      </c>
-      <c r="I43" s="234">
-        <v>933144.11</v>
-      </c>
-      <c r="J43" s="233"/>
-      <c r="K43" s="233"/>
-      <c r="L43" s="203">
-        <v>960276.87</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A44" s="200" t="s">
-        <v>68</v>
-      </c>
-      <c r="B44" s="200" t="s">
-        <v>337</v>
-      </c>
-      <c r="C44" s="201" t="s">
-        <v>423</v>
-      </c>
-      <c r="D44" s="201" t="s">
-        <v>411</v>
-      </c>
-      <c r="E44" s="201" t="s">
-        <v>249</v>
-      </c>
-      <c r="F44" s="201"/>
-      <c r="G44" s="205" t="s">
-        <v>413</v>
-      </c>
-      <c r="H44" s="206">
-        <v>46049</v>
-      </c>
-      <c r="I44" s="234">
-        <v>1461860.68</v>
-      </c>
-      <c r="J44" s="233"/>
-      <c r="K44" s="233"/>
-      <c r="L44" s="203">
-        <v>1461860.68</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A45" s="200" t="s">
-        <v>63</v>
-      </c>
-      <c r="B45" s="200" t="s">
-        <v>90</v>
-      </c>
-      <c r="C45" s="201" t="s">
-        <v>128</v>
-      </c>
-      <c r="D45" s="201" t="s">
-        <v>414</v>
-      </c>
-      <c r="E45" s="201" t="s">
-        <v>125</v>
-      </c>
-      <c r="F45" s="201"/>
-      <c r="G45" s="209" t="s">
-        <v>100</v>
-      </c>
-      <c r="H45" s="209"/>
-      <c r="I45" s="236"/>
-      <c r="J45" s="236"/>
-      <c r="K45" s="236"/>
-      <c r="L45" s="203">
-        <v>1001012.24</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A46" s="200" t="s">
-        <v>155</v>
-      </c>
-      <c r="B46" s="200" t="s">
-        <v>158</v>
-      </c>
-      <c r="C46" s="201" t="s">
-        <v>419</v>
-      </c>
-      <c r="D46" s="201" t="s">
-        <v>414</v>
-      </c>
-      <c r="E46" s="201" t="s">
-        <v>417</v>
-      </c>
-      <c r="F46" s="201"/>
-      <c r="G46" s="209" t="s">
-        <v>100</v>
-      </c>
-      <c r="H46" s="209"/>
-      <c r="I46" s="236"/>
-      <c r="J46" s="236"/>
-      <c r="K46" s="236"/>
-      <c r="L46" s="203">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A47" s="200" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47" s="200" t="s">
-        <v>93</v>
-      </c>
-      <c r="C47" s="201" t="s">
-        <v>104</v>
-      </c>
-      <c r="D47" s="201" t="s">
-        <v>414</v>
-      </c>
-      <c r="E47" s="201" t="s">
-        <v>144</v>
-      </c>
-      <c r="F47" s="201"/>
-      <c r="G47" s="209" t="s">
-        <v>100</v>
-      </c>
-      <c r="H47" s="209"/>
-      <c r="I47" s="236"/>
-      <c r="J47" s="236"/>
-      <c r="K47" s="236"/>
-      <c r="L47" s="203">
-        <v>6464841.9500000002</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A48" s="200" t="s">
-        <v>78</v>
-      </c>
-      <c r="B48" s="200" t="s">
-        <v>133</v>
-      </c>
-      <c r="C48" s="201" t="s">
-        <v>418</v>
-      </c>
-      <c r="D48" s="201" t="s">
-        <v>408</v>
-      </c>
-      <c r="E48" s="201" t="s">
-        <v>170</v>
-      </c>
-      <c r="F48" s="201"/>
-      <c r="G48" s="209" t="s">
-        <v>100</v>
-      </c>
-      <c r="H48" s="209"/>
-      <c r="I48" s="236"/>
-      <c r="J48" s="236"/>
-      <c r="K48" s="236"/>
-      <c r="L48" s="203">
-        <v>3023307.47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="15" x14ac:dyDescent="0.3">
-      <c r="A49" s="242" t="s">
-        <v>156</v>
-      </c>
-      <c r="B49" s="242" t="s">
-        <v>160</v>
-      </c>
-      <c r="C49" s="243" t="s">
-        <v>420</v>
-      </c>
-      <c r="D49" s="243" t="s">
-        <v>414</v>
-      </c>
-      <c r="E49" s="243" t="s">
-        <v>416</v>
-      </c>
-      <c r="F49" s="243"/>
-      <c r="G49" s="244" t="s">
-        <v>100</v>
-      </c>
-      <c r="H49" s="244"/>
-      <c r="I49" s="245"/>
-      <c r="J49" s="245"/>
-      <c r="K49" s="245"/>
-      <c r="L49" s="246">
-        <v>768865.27</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="15" x14ac:dyDescent="0.3">
-      <c r="A50" s="204" t="s">
-        <v>37</v>
-      </c>
-      <c r="B50" s="204" t="s">
-        <v>98</v>
-      </c>
-      <c r="C50" s="205" t="s">
-        <v>104</v>
-      </c>
-      <c r="D50" s="205" t="s">
-        <v>255</v>
-      </c>
-      <c r="E50" s="204" t="s">
-        <v>99</v>
-      </c>
-      <c r="F50" s="118"/>
-      <c r="G50" s="205" t="s">
+      <c r="E22" s="118"/>
+      <c r="F22" s="204" t="s">
         <v>350</v>
       </c>
-      <c r="H50" s="247"/>
-      <c r="I50" s="248"/>
-      <c r="J50" s="248"/>
-      <c r="K50" s="248"/>
-      <c r="L50" s="207">
-        <v>1000000</v>
-      </c>
-      <c r="M50"/>
-    </row>
-    <row r="51" spans="1:13" ht="15" x14ac:dyDescent="0.3">
-      <c r="A51" s="241" t="s">
-        <v>247</v>
-      </c>
-      <c r="B51" s="241"/>
-      <c r="C51" s="205" t="s">
-        <v>104</v>
-      </c>
-      <c r="D51" s="205" t="s">
-        <v>255</v>
-      </c>
-      <c r="E51" s="204" t="s">
-        <v>99</v>
-      </c>
-      <c r="F51" s="118"/>
-      <c r="G51" s="205" t="s">
-        <v>350</v>
-      </c>
-      <c r="H51" s="249"/>
-      <c r="I51" s="250"/>
-      <c r="J51" s="250"/>
-      <c r="K51" s="250"/>
-      <c r="L51" s="207">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" ht="15" x14ac:dyDescent="0.3">
-      <c r="A52" s="241" t="s">
-        <v>67</v>
-      </c>
-      <c r="B52" s="241"/>
-      <c r="C52" s="205" t="s">
-        <v>104</v>
-      </c>
-      <c r="D52" s="205" t="s">
-        <v>255</v>
-      </c>
-      <c r="E52" s="204" t="s">
-        <v>99</v>
-      </c>
-      <c r="F52" s="118"/>
-      <c r="G52" s="205" t="s">
-        <v>350</v>
-      </c>
-      <c r="H52" s="119"/>
-      <c r="I52" s="120"/>
-      <c r="J52" s="120"/>
-      <c r="K52" s="120"/>
-      <c r="L52" s="207">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="15" x14ac:dyDescent="0.3">
-      <c r="A53" s="241" t="s">
-        <v>79</v>
-      </c>
-      <c r="B53" s="241"/>
-      <c r="C53" s="205" t="s">
-        <v>104</v>
-      </c>
-      <c r="D53" s="205" t="s">
-        <v>255</v>
-      </c>
-      <c r="E53" s="204" t="s">
-        <v>99</v>
-      </c>
-      <c r="F53" s="118"/>
-      <c r="G53" s="205" t="s">
-        <v>350</v>
-      </c>
-      <c r="H53" s="119"/>
-      <c r="I53" s="120"/>
-      <c r="J53" s="120"/>
-      <c r="K53" s="120"/>
-      <c r="L53" s="207">
+      <c r="G22" s="119"/>
+      <c r="H22" s="120"/>
+      <c r="I22" s="120"/>
+      <c r="J22" s="120"/>
+      <c r="K22" s="206">
         <v>500000</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" scale="96" orientation="landscape" r:id="rId1"/>
@@ -6698,2031 +5980,6 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6024A49-039C-40F9-8650-18EBEB4FB8F7}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="B1:I179"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="7.77734375" customWidth="1"/>
-    <col min="2" max="2" width="6" style="71" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" customWidth="1"/>
-    <col min="4" max="4" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.88671875" style="71" customWidth="1"/>
-    <col min="7" max="7" width="33.21875" style="71" customWidth="1"/>
-    <col min="8" max="8" width="19.109375" style="72" customWidth="1"/>
-    <col min="9" max="9" width="4.44140625" customWidth="1"/>
-    <col min="10" max="10" width="20.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="128" t="s">
-        <v>162</v>
-      </c>
-      <c r="C2" s="129" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="149" t="s">
-        <v>179</v>
-      </c>
-      <c r="E2" s="129" t="s">
-        <v>102</v>
-      </c>
-      <c r="F2" s="129" t="s">
-        <v>103</v>
-      </c>
-      <c r="G2" s="129" t="s">
-        <v>334</v>
-      </c>
-      <c r="H2" s="130" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="135">
-        <v>0</v>
-      </c>
-      <c r="C3" s="136" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="135" t="s">
-        <v>181</v>
-      </c>
-      <c r="E3" s="136" t="s">
-        <v>240</v>
-      </c>
-      <c r="F3" s="135" t="s">
-        <v>239</v>
-      </c>
-      <c r="G3" s="215" t="s">
-        <v>432</v>
-      </c>
-      <c r="H3" s="137">
-        <v>645999.5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="135">
-        <v>0</v>
-      </c>
-      <c r="C4" s="136" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="135" t="s">
-        <v>181</v>
-      </c>
-      <c r="E4" s="136" t="s">
-        <v>240</v>
-      </c>
-      <c r="F4" s="135" t="s">
-        <v>241</v>
-      </c>
-      <c r="G4" s="215" t="s">
-        <v>432</v>
-      </c>
-      <c r="H4" s="137">
-        <v>692699.19</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="135">
-        <v>0</v>
-      </c>
-      <c r="C5" s="136" t="s">
-        <v>244</v>
-      </c>
-      <c r="D5" s="135" t="s">
-        <v>181</v>
-      </c>
-      <c r="E5" s="136" t="s">
-        <v>240</v>
-      </c>
-      <c r="F5" s="135" t="s">
-        <v>245</v>
-      </c>
-      <c r="G5" s="215" t="s">
-        <v>432</v>
-      </c>
-      <c r="H5" s="137">
-        <v>380969.09</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="135">
-        <v>1</v>
-      </c>
-      <c r="C6" s="136" t="s">
-        <v>221</v>
-      </c>
-      <c r="D6" s="135" t="s">
-        <v>181</v>
-      </c>
-      <c r="E6" s="136" t="s">
-        <v>223</v>
-      </c>
-      <c r="F6" s="135" t="s">
-        <v>222</v>
-      </c>
-      <c r="G6" s="215" t="s">
-        <v>432</v>
-      </c>
-      <c r="H6" s="137">
-        <v>1187953.73</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="135">
-        <v>1</v>
-      </c>
-      <c r="C7" s="136" t="s">
-        <v>219</v>
-      </c>
-      <c r="D7" s="135" t="s">
-        <v>191</v>
-      </c>
-      <c r="E7" s="136" t="s">
-        <v>193</v>
-      </c>
-      <c r="F7" s="135" t="s">
-        <v>220</v>
-      </c>
-      <c r="G7" s="215" t="s">
-        <v>432</v>
-      </c>
-      <c r="H7" s="137">
-        <v>497199.96</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="135">
-        <v>1</v>
-      </c>
-      <c r="C8" s="136" t="s">
-        <v>184</v>
-      </c>
-      <c r="D8" s="135" t="s">
-        <v>181</v>
-      </c>
-      <c r="E8" s="136" t="s">
-        <v>186</v>
-      </c>
-      <c r="F8" s="135" t="s">
-        <v>424</v>
-      </c>
-      <c r="G8" s="215" t="s">
-        <v>432</v>
-      </c>
-      <c r="H8" s="137">
-        <v>1042447.89</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="135">
-        <v>1</v>
-      </c>
-      <c r="C9" s="136" t="s">
-        <v>190</v>
-      </c>
-      <c r="D9" s="135" t="s">
-        <v>191</v>
-      </c>
-      <c r="E9" s="136" t="s">
-        <v>193</v>
-      </c>
-      <c r="F9" s="135" t="s">
-        <v>425</v>
-      </c>
-      <c r="G9" s="215" t="s">
-        <v>432</v>
-      </c>
-      <c r="H9" s="137">
-        <v>490400</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="118">
-        <v>1</v>
-      </c>
-      <c r="C10" s="119" t="s">
-        <v>437</v>
-      </c>
-      <c r="D10" s="118" t="s">
-        <v>280</v>
-      </c>
-      <c r="E10" s="119" t="s">
-        <v>354</v>
-      </c>
-      <c r="F10" s="118" t="s">
-        <v>451</v>
-      </c>
-      <c r="G10" s="215" t="s">
-        <v>432</v>
-      </c>
-      <c r="H10" s="120">
-        <v>398100</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="118">
-        <v>1</v>
-      </c>
-      <c r="C11" s="119" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="118" t="s">
-        <v>439</v>
-      </c>
-      <c r="E11" s="119" t="s">
-        <v>193</v>
-      </c>
-      <c r="F11" s="118" t="s">
-        <v>452</v>
-      </c>
-      <c r="G11" s="226" t="s">
-        <v>455</v>
-      </c>
-      <c r="H11" s="120">
-        <v>496705.87</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="118">
-        <v>1</v>
-      </c>
-      <c r="C12" s="119" t="s">
-        <v>273</v>
-      </c>
-      <c r="D12" s="118" t="s">
-        <v>438</v>
-      </c>
-      <c r="E12" s="119" t="s">
-        <v>276</v>
-      </c>
-      <c r="F12" s="118" t="s">
-        <v>449</v>
-      </c>
-      <c r="G12" s="226" t="s">
-        <v>455</v>
-      </c>
-      <c r="H12" s="120">
-        <v>800000</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="118">
-        <v>1</v>
-      </c>
-      <c r="C13" s="119" t="s">
-        <v>252</v>
-      </c>
-      <c r="D13" s="118" t="s">
-        <v>181</v>
-      </c>
-      <c r="E13" s="119" t="s">
-        <v>254</v>
-      </c>
-      <c r="F13" s="118" t="s">
-        <v>253</v>
-      </c>
-      <c r="G13" s="226" t="s">
-        <v>455</v>
-      </c>
-      <c r="H13" s="120">
-        <v>933365</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="118">
-        <v>1</v>
-      </c>
-      <c r="C14" s="119" t="s">
-        <v>194</v>
-      </c>
-      <c r="D14" s="118" t="s">
-        <v>181</v>
-      </c>
-      <c r="E14" s="119" t="s">
-        <v>310</v>
-      </c>
-      <c r="F14" s="118" t="s">
-        <v>256</v>
-      </c>
-      <c r="G14" s="226" t="s">
-        <v>455</v>
-      </c>
-      <c r="H14" s="120">
-        <v>878808.24</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="118">
-        <v>1</v>
-      </c>
-      <c r="C15" s="119" t="s">
-        <v>309</v>
-      </c>
-      <c r="D15" s="118" t="s">
-        <v>440</v>
-      </c>
-      <c r="E15" s="119" t="s">
-        <v>440</v>
-      </c>
-      <c r="F15" s="118" t="s">
-        <v>330</v>
-      </c>
-      <c r="G15" s="226" t="s">
-        <v>455</v>
-      </c>
-      <c r="H15" s="120">
-        <v>1618242.16</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="118">
-        <v>1</v>
-      </c>
-      <c r="C16" s="119" t="s">
-        <v>260</v>
-      </c>
-      <c r="D16" s="118" t="s">
-        <v>181</v>
-      </c>
-      <c r="E16" s="119" t="s">
-        <v>262</v>
-      </c>
-      <c r="F16" s="118" t="s">
-        <v>261</v>
-      </c>
-      <c r="G16" s="226" t="s">
-        <v>455</v>
-      </c>
-      <c r="H16" s="120">
-        <v>552987</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="118">
-        <v>1</v>
-      </c>
-      <c r="C17" s="119" t="s">
-        <v>290</v>
-      </c>
-      <c r="D17" s="118" t="s">
-        <v>181</v>
-      </c>
-      <c r="E17" s="119" t="s">
-        <v>292</v>
-      </c>
-      <c r="F17" s="118" t="s">
-        <v>291</v>
-      </c>
-      <c r="G17" s="226" t="s">
-        <v>455</v>
-      </c>
-      <c r="H17" s="120">
-        <v>4543923.28</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="118">
-        <v>1</v>
-      </c>
-      <c r="C18" s="119" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="118" t="s">
-        <v>288</v>
-      </c>
-      <c r="E18" s="119" t="s">
-        <v>442</v>
-      </c>
-      <c r="F18" s="118" t="s">
-        <v>332</v>
-      </c>
-      <c r="G18" s="226" t="s">
-        <v>455</v>
-      </c>
-      <c r="H18" s="120">
-        <v>3328027.12</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="118">
-        <v>1</v>
-      </c>
-      <c r="C19" s="119" t="s">
-        <v>263</v>
-      </c>
-      <c r="D19" s="125" t="s">
-        <v>439</v>
-      </c>
-      <c r="E19" s="119" t="s">
-        <v>193</v>
-      </c>
-      <c r="F19" s="118" t="s">
-        <v>453</v>
-      </c>
-      <c r="G19" s="226" t="s">
-        <v>455</v>
-      </c>
-      <c r="H19" s="120">
-        <v>496705.87</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="118">
-        <v>1</v>
-      </c>
-      <c r="C20" s="119" t="s">
-        <v>264</v>
-      </c>
-      <c r="D20" s="118" t="s">
-        <v>181</v>
-      </c>
-      <c r="E20" s="119" t="s">
-        <v>266</v>
-      </c>
-      <c r="F20" s="118" t="s">
-        <v>265</v>
-      </c>
-      <c r="G20" s="226" t="s">
-        <v>455</v>
-      </c>
-      <c r="H20" s="120">
-        <v>945208.63</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="118">
-        <v>1</v>
-      </c>
-      <c r="C21" s="119" t="s">
-        <v>267</v>
-      </c>
-      <c r="D21" s="118" t="s">
-        <v>181</v>
-      </c>
-      <c r="E21" s="119" t="s">
-        <v>269</v>
-      </c>
-      <c r="F21" s="118" t="s">
-        <v>268</v>
-      </c>
-      <c r="G21" s="226" t="s">
-        <v>455</v>
-      </c>
-      <c r="H21" s="120">
-        <v>603731.81999999995</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="118">
-        <v>1</v>
-      </c>
-      <c r="C22" s="119" t="s">
-        <v>79</v>
-      </c>
-      <c r="D22" s="118" t="s">
-        <v>181</v>
-      </c>
-      <c r="E22" s="119" t="s">
-        <v>446</v>
-      </c>
-      <c r="F22" s="118" t="s">
-        <v>333</v>
-      </c>
-      <c r="G22" s="226" t="s">
-        <v>455</v>
-      </c>
-      <c r="H22" s="120">
-        <v>726450</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="118">
-        <v>1</v>
-      </c>
-      <c r="C23" s="119" t="s">
-        <v>270</v>
-      </c>
-      <c r="D23" s="118" t="s">
-        <v>181</v>
-      </c>
-      <c r="E23" s="119" t="s">
-        <v>447</v>
-      </c>
-      <c r="F23" s="118" t="s">
-        <v>271</v>
-      </c>
-      <c r="G23" s="226" t="s">
-        <v>455</v>
-      </c>
-      <c r="H23" s="120">
-        <v>752115</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="118">
-        <v>1</v>
-      </c>
-      <c r="C24" s="224" t="s">
-        <v>457</v>
-      </c>
-      <c r="D24" s="223" t="s">
-        <v>439</v>
-      </c>
-      <c r="E24" s="224" t="s">
-        <v>458</v>
-      </c>
-      <c r="F24" s="223" t="s">
-        <v>459</v>
-      </c>
-      <c r="G24" s="227" t="s">
-        <v>455</v>
-      </c>
-      <c r="H24" s="225">
-        <v>800000</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="135">
-        <v>1</v>
-      </c>
-      <c r="C25" s="136" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="135" t="s">
-        <v>181</v>
-      </c>
-      <c r="E25" s="136" t="s">
-        <v>183</v>
-      </c>
-      <c r="F25" s="135" t="s">
-        <v>182</v>
-      </c>
-      <c r="G25" s="135" t="s">
-        <v>349</v>
-      </c>
-      <c r="H25" s="137">
-        <v>1243971.5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="135">
-        <v>1</v>
-      </c>
-      <c r="C26" s="136" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="135" t="s">
-        <v>181</v>
-      </c>
-      <c r="E26" s="136" t="s">
-        <v>199</v>
-      </c>
-      <c r="F26" s="135" t="s">
-        <v>198</v>
-      </c>
-      <c r="G26" s="135" t="s">
-        <v>349</v>
-      </c>
-      <c r="H26" s="137">
-        <v>444316.1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="135">
-        <v>1</v>
-      </c>
-      <c r="C27" s="136" t="s">
-        <v>203</v>
-      </c>
-      <c r="D27" s="135" t="s">
-        <v>181</v>
-      </c>
-      <c r="E27" s="136" t="s">
-        <v>205</v>
-      </c>
-      <c r="F27" s="135" t="s">
-        <v>204</v>
-      </c>
-      <c r="G27" s="135" t="s">
-        <v>349</v>
-      </c>
-      <c r="H27" s="137">
-        <v>650000.72</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="135">
-        <v>1</v>
-      </c>
-      <c r="C28" s="136" t="s">
-        <v>206</v>
-      </c>
-      <c r="D28" s="163" t="s">
-        <v>181</v>
-      </c>
-      <c r="E28" s="136" t="s">
-        <v>430</v>
-      </c>
-      <c r="F28" s="135" t="s">
-        <v>207</v>
-      </c>
-      <c r="G28" s="135" t="s">
-        <v>349</v>
-      </c>
-      <c r="H28" s="137">
-        <v>327811.46999999997</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="135">
-        <v>1</v>
-      </c>
-      <c r="C29" s="136" t="s">
-        <v>211</v>
-      </c>
-      <c r="D29" s="135" t="s">
-        <v>181</v>
-      </c>
-      <c r="E29" s="136" t="s">
-        <v>212</v>
-      </c>
-      <c r="F29" s="135" t="s">
-        <v>428</v>
-      </c>
-      <c r="G29" s="135" t="s">
-        <v>349</v>
-      </c>
-      <c r="H29" s="137">
-        <v>750848.62</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="135">
-        <v>1</v>
-      </c>
-      <c r="C30" s="119" t="s">
-        <v>258</v>
-      </c>
-      <c r="D30" s="118" t="s">
-        <v>181</v>
-      </c>
-      <c r="E30" s="119" t="s">
-        <v>310</v>
-      </c>
-      <c r="F30" s="118" t="s">
-        <v>259</v>
-      </c>
-      <c r="G30" s="135" t="s">
-        <v>349</v>
-      </c>
-      <c r="H30" s="120">
-        <v>829718.98</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="135">
-        <v>1</v>
-      </c>
-      <c r="C31" s="119" t="s">
-        <v>279</v>
-      </c>
-      <c r="D31" s="118" t="s">
-        <v>280</v>
-      </c>
-      <c r="E31" s="119" t="s">
-        <v>281</v>
-      </c>
-      <c r="F31" s="118" t="s">
-        <v>450</v>
-      </c>
-      <c r="G31" s="135" t="s">
-        <v>349</v>
-      </c>
-      <c r="H31" s="120">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G32" s="122" t="s">
-        <v>131</v>
-      </c>
-      <c r="H32" s="123">
-        <f>SUM(H3:H31)</f>
-        <v>27558706.740000002</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="40" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="132" t="s">
-        <v>177</v>
-      </c>
-      <c r="C40" s="133" t="s">
-        <v>178</v>
-      </c>
-      <c r="D40" s="133" t="s">
-        <v>179</v>
-      </c>
-      <c r="E40" s="133" t="s">
-        <v>102</v>
-      </c>
-      <c r="F40" s="133" t="s">
-        <v>103</v>
-      </c>
-      <c r="G40" s="166" t="s">
-        <v>334</v>
-      </c>
-      <c r="H40" s="134" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B41" s="135">
-        <v>0</v>
-      </c>
-      <c r="C41" s="136" t="s">
-        <v>242</v>
-      </c>
-      <c r="D41" s="135" t="s">
-        <v>181</v>
-      </c>
-      <c r="E41" s="136" t="s">
-        <v>240</v>
-      </c>
-      <c r="F41" s="135" t="s">
-        <v>243</v>
-      </c>
-      <c r="G41" s="173" t="s">
-        <v>343</v>
-      </c>
-      <c r="H41" s="137">
-        <v>362130.36</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B42" s="135">
-        <v>0</v>
-      </c>
-      <c r="C42" s="136" t="s">
-        <v>187</v>
-      </c>
-      <c r="D42" s="135" t="s">
-        <v>181</v>
-      </c>
-      <c r="E42" s="136" t="s">
-        <v>189</v>
-      </c>
-      <c r="F42" s="135" t="s">
-        <v>188</v>
-      </c>
-      <c r="G42" s="173" t="s">
-        <v>343</v>
-      </c>
-      <c r="H42" s="137">
-        <v>561100</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B43" s="135">
-        <v>0</v>
-      </c>
-      <c r="C43" s="136" t="s">
-        <v>194</v>
-      </c>
-      <c r="D43" s="135" t="s">
-        <v>195</v>
-      </c>
-      <c r="E43" s="136" t="s">
-        <v>197</v>
-      </c>
-      <c r="F43" s="135" t="s">
-        <v>426</v>
-      </c>
-      <c r="G43" s="173" t="s">
-        <v>343</v>
-      </c>
-      <c r="H43" s="137">
-        <v>786000</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B44" s="135">
-        <v>0</v>
-      </c>
-      <c r="C44" s="136" t="s">
-        <v>155</v>
-      </c>
-      <c r="D44" s="135" t="s">
-        <v>191</v>
-      </c>
-      <c r="E44" s="136" t="s">
-        <v>202</v>
-      </c>
-      <c r="F44" s="135" t="s">
-        <v>427</v>
-      </c>
-      <c r="G44" s="173" t="s">
-        <v>343</v>
-      </c>
-      <c r="H44" s="137">
-        <v>934000</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B45" s="135">
-        <v>0</v>
-      </c>
-      <c r="C45" s="136" t="s">
-        <v>36</v>
-      </c>
-      <c r="D45" s="135" t="s">
-        <v>191</v>
-      </c>
-      <c r="E45" s="136" t="s">
-        <v>210</v>
-      </c>
-      <c r="F45" s="135" t="s">
-        <v>209</v>
-      </c>
-      <c r="G45" s="173" t="s">
-        <v>343</v>
-      </c>
-      <c r="H45" s="137">
-        <v>502200</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B46" s="135">
-        <v>0</v>
-      </c>
-      <c r="C46" s="136" t="s">
-        <v>213</v>
-      </c>
-      <c r="D46" s="135" t="s">
-        <v>181</v>
-      </c>
-      <c r="E46" s="136" t="s">
-        <v>429</v>
-      </c>
-      <c r="F46" s="135" t="s">
-        <v>214</v>
-      </c>
-      <c r="G46" s="173" t="s">
-        <v>343</v>
-      </c>
-      <c r="H46" s="137">
-        <v>498000</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B47" s="135">
-        <v>0</v>
-      </c>
-      <c r="C47" s="221" t="s">
-        <v>431</v>
-      </c>
-      <c r="D47" s="163" t="s">
-        <v>181</v>
-      </c>
-      <c r="E47" s="221" t="s">
-        <v>218</v>
-      </c>
-      <c r="F47" s="163" t="s">
-        <v>217</v>
-      </c>
-      <c r="G47" s="173" t="s">
-        <v>343</v>
-      </c>
-      <c r="H47" s="137">
-        <v>2317720</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B48" s="135">
-        <v>0</v>
-      </c>
-      <c r="C48" s="221" t="s">
-        <v>232</v>
-      </c>
-      <c r="D48" s="163" t="s">
-        <v>434</v>
-      </c>
-      <c r="E48" s="221" t="s">
-        <v>435</v>
-      </c>
-      <c r="F48" s="163" t="s">
-        <v>436</v>
-      </c>
-      <c r="G48" s="173" t="s">
-        <v>343</v>
-      </c>
-      <c r="H48" s="222">
-        <v>450000</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="H49" s="72">
-        <f>SUM(H41:H48)</f>
-        <v>6411150.3599999994</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B57" s="157" t="s">
-        <v>323</v>
-      </c>
-      <c r="C57" s="138"/>
-      <c r="D57" s="138"/>
-      <c r="E57" s="138"/>
-      <c r="F57" s="156"/>
-      <c r="G57" s="156"/>
-      <c r="H57" s="139"/>
-      <c r="I57" s="140"/>
-    </row>
-    <row r="58" spans="2:9" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="156"/>
-      <c r="C58" s="138"/>
-      <c r="D58" s="138"/>
-      <c r="E58" s="138"/>
-      <c r="F58" s="156"/>
-      <c r="G58" s="156"/>
-      <c r="H58" s="139"/>
-      <c r="I58" s="140"/>
-    </row>
-    <row r="59" spans="2:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="132" t="s">
-        <v>177</v>
-      </c>
-      <c r="C59" s="133" t="s">
-        <v>178</v>
-      </c>
-      <c r="D59" s="133" t="s">
-        <v>179</v>
-      </c>
-      <c r="E59" s="133" t="s">
-        <v>102</v>
-      </c>
-      <c r="F59" s="133" t="s">
-        <v>103</v>
-      </c>
-      <c r="G59" s="166" t="s">
-        <v>334</v>
-      </c>
-      <c r="H59" s="134" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="153">
-        <v>3</v>
-      </c>
-      <c r="C60" s="135" t="s">
-        <v>293</v>
-      </c>
-      <c r="D60" s="135" t="s">
-        <v>294</v>
-      </c>
-      <c r="E60" s="135" t="s">
-        <v>193</v>
-      </c>
-      <c r="F60" s="153" t="s">
-        <v>277</v>
-      </c>
-      <c r="G60" s="169" t="s">
-        <v>350</v>
-      </c>
-      <c r="H60" s="137">
-        <v>496705.87</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="153">
-        <v>3</v>
-      </c>
-      <c r="C61" s="135" t="s">
-        <v>295</v>
-      </c>
-      <c r="D61" s="135" t="s">
-        <v>181</v>
-      </c>
-      <c r="E61" s="135" t="s">
-        <v>296</v>
-      </c>
-      <c r="F61" s="153" t="s">
-        <v>277</v>
-      </c>
-      <c r="G61" s="169" t="s">
-        <v>350</v>
-      </c>
-      <c r="H61" s="137">
-        <v>700000</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B62" s="153">
-        <v>3</v>
-      </c>
-      <c r="C62" s="135" t="s">
-        <v>11</v>
-      </c>
-      <c r="D62" s="135" t="s">
-        <v>181</v>
-      </c>
-      <c r="E62" s="135" t="s">
-        <v>464</v>
-      </c>
-      <c r="F62" s="153" t="s">
-        <v>277</v>
-      </c>
-      <c r="G62" s="169" t="s">
-        <v>350</v>
-      </c>
-      <c r="H62" s="137">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B63" s="153">
-        <v>3</v>
-      </c>
-      <c r="C63" s="135" t="s">
-        <v>297</v>
-      </c>
-      <c r="D63" s="135" t="s">
-        <v>181</v>
-      </c>
-      <c r="E63" s="135" t="s">
-        <v>298</v>
-      </c>
-      <c r="F63" s="153" t="s">
-        <v>277</v>
-      </c>
-      <c r="G63" s="169" t="s">
-        <v>350</v>
-      </c>
-      <c r="H63" s="137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B64" s="153">
-        <v>3</v>
-      </c>
-      <c r="C64" s="135" t="s">
-        <v>299</v>
-      </c>
-      <c r="D64" s="135" t="s">
-        <v>294</v>
-      </c>
-      <c r="E64" s="135" t="s">
-        <v>460</v>
-      </c>
-      <c r="F64" s="153" t="s">
-        <v>277</v>
-      </c>
-      <c r="G64" s="169" t="s">
-        <v>350</v>
-      </c>
-      <c r="H64" s="137">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B65" s="153">
-        <v>3</v>
-      </c>
-      <c r="C65" s="135" t="s">
-        <v>13</v>
-      </c>
-      <c r="D65" s="135" t="s">
-        <v>181</v>
-      </c>
-      <c r="E65" s="135" t="s">
-        <v>296</v>
-      </c>
-      <c r="F65" s="153" t="s">
-        <v>277</v>
-      </c>
-      <c r="G65" s="169" t="s">
-        <v>350</v>
-      </c>
-      <c r="H65" s="137">
-        <v>750000</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B66" s="153">
-        <v>3</v>
-      </c>
-      <c r="C66" s="135" t="s">
-        <v>13</v>
-      </c>
-      <c r="D66" s="135" t="s">
-        <v>280</v>
-      </c>
-      <c r="E66" s="135" t="s">
-        <v>354</v>
-      </c>
-      <c r="F66" s="153" t="s">
-        <v>277</v>
-      </c>
-      <c r="G66" s="169" t="s">
-        <v>350</v>
-      </c>
-      <c r="H66" s="137">
-        <v>750000</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B67" s="153">
-        <v>3</v>
-      </c>
-      <c r="C67" s="135" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="135" t="s">
-        <v>280</v>
-      </c>
-      <c r="E67" s="135" t="s">
-        <v>353</v>
-      </c>
-      <c r="F67" s="153" t="s">
-        <v>277</v>
-      </c>
-      <c r="G67" s="169" t="s">
-        <v>350</v>
-      </c>
-      <c r="H67" s="137">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B68" s="153">
-        <v>3</v>
-      </c>
-      <c r="C68" s="135" t="s">
-        <v>302</v>
-      </c>
-      <c r="D68" s="135" t="s">
-        <v>181</v>
-      </c>
-      <c r="E68" s="135" t="s">
-        <v>303</v>
-      </c>
-      <c r="F68" s="153" t="s">
-        <v>277</v>
-      </c>
-      <c r="G68" s="169" t="s">
-        <v>350</v>
-      </c>
-      <c r="H68" s="137">
-        <v>560000</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B69" s="153">
-        <v>3</v>
-      </c>
-      <c r="C69" s="135" t="s">
-        <v>304</v>
-      </c>
-      <c r="D69" s="135" t="s">
-        <v>181</v>
-      </c>
-      <c r="E69" s="135" t="s">
-        <v>305</v>
-      </c>
-      <c r="F69" s="153" t="s">
-        <v>277</v>
-      </c>
-      <c r="G69" s="169" t="s">
-        <v>350</v>
-      </c>
-      <c r="H69" s="137">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B70" s="153">
-        <v>3</v>
-      </c>
-      <c r="C70" s="135" t="s">
-        <v>306</v>
-      </c>
-      <c r="D70" s="135" t="s">
-        <v>181</v>
-      </c>
-      <c r="E70" s="135" t="s">
-        <v>296</v>
-      </c>
-      <c r="F70" s="153" t="s">
-        <v>277</v>
-      </c>
-      <c r="G70" s="169" t="s">
-        <v>350</v>
-      </c>
-      <c r="H70" s="137">
-        <v>700000</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B71" s="153">
-        <v>3</v>
-      </c>
-      <c r="C71" s="135" t="s">
-        <v>306</v>
-      </c>
-      <c r="D71" s="135" t="s">
-        <v>294</v>
-      </c>
-      <c r="E71" s="135" t="s">
-        <v>193</v>
-      </c>
-      <c r="F71" s="153" t="s">
-        <v>277</v>
-      </c>
-      <c r="G71" s="169" t="s">
-        <v>350</v>
-      </c>
-      <c r="H71" s="137">
-        <v>496705.87</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B72" s="153">
-        <v>3</v>
-      </c>
-      <c r="C72" s="135" t="s">
-        <v>307</v>
-      </c>
-      <c r="D72" s="135" t="s">
-        <v>181</v>
-      </c>
-      <c r="E72" s="135" t="s">
-        <v>308</v>
-      </c>
-      <c r="F72" s="153" t="s">
-        <v>277</v>
-      </c>
-      <c r="G72" s="169" t="s">
-        <v>350</v>
-      </c>
-      <c r="H72" s="137">
-        <v>980000</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B73" s="153">
-        <v>3</v>
-      </c>
-      <c r="C73" s="135" t="s">
-        <v>355</v>
-      </c>
-      <c r="D73" s="135" t="s">
-        <v>181</v>
-      </c>
-      <c r="E73" s="135" t="s">
-        <v>296</v>
-      </c>
-      <c r="F73" s="153" t="s">
-        <v>277</v>
-      </c>
-      <c r="G73" s="169" t="s">
-        <v>350</v>
-      </c>
-      <c r="H73" s="137">
-        <v>750000</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B74" s="153">
-        <v>3</v>
-      </c>
-      <c r="C74" s="135" t="s">
-        <v>309</v>
-      </c>
-      <c r="D74" s="135" t="s">
-        <v>181</v>
-      </c>
-      <c r="E74" s="135" t="s">
-        <v>310</v>
-      </c>
-      <c r="F74" s="153" t="s">
-        <v>277</v>
-      </c>
-      <c r="G74" s="169" t="s">
-        <v>350</v>
-      </c>
-      <c r="H74" s="137">
-        <v>800000</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B75" s="153">
-        <v>3</v>
-      </c>
-      <c r="C75" s="135" t="s">
-        <v>258</v>
-      </c>
-      <c r="D75" s="163" t="s">
-        <v>181</v>
-      </c>
-      <c r="E75" s="135" t="s">
-        <v>278</v>
-      </c>
-      <c r="F75" s="153" t="s">
-        <v>277</v>
-      </c>
-      <c r="G75" s="169" t="s">
-        <v>350</v>
-      </c>
-      <c r="H75" s="137">
-        <v>522000</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B76" s="153">
-        <v>3</v>
-      </c>
-      <c r="C76" s="135" t="s">
-        <v>95</v>
-      </c>
-      <c r="D76" s="135" t="s">
-        <v>181</v>
-      </c>
-      <c r="E76" s="135" t="s">
-        <v>311</v>
-      </c>
-      <c r="F76" s="153" t="s">
-        <v>277</v>
-      </c>
-      <c r="G76" s="169" t="s">
-        <v>350</v>
-      </c>
-      <c r="H76" s="137">
-        <v>4350000</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B77" s="153">
-        <v>3</v>
-      </c>
-      <c r="C77" s="135" t="s">
-        <v>95</v>
-      </c>
-      <c r="D77" s="135" t="s">
-        <v>294</v>
-      </c>
-      <c r="E77" s="135" t="s">
-        <v>462</v>
-      </c>
-      <c r="F77" s="153" t="s">
-        <v>277</v>
-      </c>
-      <c r="G77" s="169" t="s">
-        <v>350</v>
-      </c>
-      <c r="H77" s="137">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B78" s="153">
-        <v>3</v>
-      </c>
-      <c r="C78" s="135" t="s">
-        <v>95</v>
-      </c>
-      <c r="D78" s="135" t="s">
-        <v>294</v>
-      </c>
-      <c r="E78" s="135" t="s">
-        <v>463</v>
-      </c>
-      <c r="F78" s="153" t="s">
-        <v>277</v>
-      </c>
-      <c r="G78" s="169" t="s">
-        <v>350</v>
-      </c>
-      <c r="H78" s="137">
-        <v>700000</v>
-      </c>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B79" s="153">
-        <v>3</v>
-      </c>
-      <c r="C79" s="135" t="s">
-        <v>312</v>
-      </c>
-      <c r="D79" s="135" t="s">
-        <v>181</v>
-      </c>
-      <c r="E79" s="135" t="s">
-        <v>199</v>
-      </c>
-      <c r="F79" s="153" t="s">
-        <v>277</v>
-      </c>
-      <c r="G79" s="169" t="s">
-        <v>350</v>
-      </c>
-      <c r="H79" s="137">
-        <v>420000</v>
-      </c>
-    </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B80" s="153">
-        <v>3</v>
-      </c>
-      <c r="C80" s="135" t="s">
-        <v>313</v>
-      </c>
-      <c r="D80" s="135" t="s">
-        <v>181</v>
-      </c>
-      <c r="E80" s="135" t="s">
-        <v>310</v>
-      </c>
-      <c r="F80" s="153" t="s">
-        <v>277</v>
-      </c>
-      <c r="G80" s="169" t="s">
-        <v>350</v>
-      </c>
-      <c r="H80" s="137">
-        <v>870000</v>
-      </c>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B81" s="153">
-        <v>3</v>
-      </c>
-      <c r="C81" s="135" t="s">
-        <v>317</v>
-      </c>
-      <c r="D81" s="135" t="s">
-        <v>181</v>
-      </c>
-      <c r="E81" s="135" t="s">
-        <v>318</v>
-      </c>
-      <c r="F81" s="153" t="s">
-        <v>277</v>
-      </c>
-      <c r="G81" s="169" t="s">
-        <v>350</v>
-      </c>
-      <c r="H81" s="137">
-        <v>448000</v>
-      </c>
-    </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B82" s="153">
-        <v>3</v>
-      </c>
-      <c r="C82" s="135" t="s">
-        <v>282</v>
-      </c>
-      <c r="D82" s="135" t="s">
-        <v>294</v>
-      </c>
-      <c r="E82" s="135" t="s">
-        <v>193</v>
-      </c>
-      <c r="F82" s="153" t="s">
-        <v>277</v>
-      </c>
-      <c r="G82" s="169" t="s">
-        <v>350</v>
-      </c>
-      <c r="H82" s="137">
-        <v>496705.87</v>
-      </c>
-    </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B83" s="153">
-        <v>3</v>
-      </c>
-      <c r="C83" s="135" t="s">
-        <v>319</v>
-      </c>
-      <c r="D83" s="135" t="s">
-        <v>181</v>
-      </c>
-      <c r="E83" s="135" t="s">
-        <v>285</v>
-      </c>
-      <c r="F83" s="153" t="s">
-        <v>277</v>
-      </c>
-      <c r="G83" s="169" t="s">
-        <v>350</v>
-      </c>
-      <c r="H83" s="137">
-        <v>260000</v>
-      </c>
-    </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B84" s="153">
-        <v>3</v>
-      </c>
-      <c r="C84" s="135" t="s">
-        <v>320</v>
-      </c>
-      <c r="D84" s="135" t="s">
-        <v>181</v>
-      </c>
-      <c r="E84" s="135" t="s">
-        <v>346</v>
-      </c>
-      <c r="F84" s="153" t="s">
-        <v>277</v>
-      </c>
-      <c r="G84" s="169" t="s">
-        <v>350</v>
-      </c>
-      <c r="H84" s="137">
-        <v>1400000</v>
-      </c>
-    </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B85" s="153">
-        <v>3</v>
-      </c>
-      <c r="C85" s="135" t="s">
-        <v>286</v>
-      </c>
-      <c r="D85" s="135" t="s">
-        <v>181</v>
-      </c>
-      <c r="E85" s="135" t="s">
-        <v>287</v>
-      </c>
-      <c r="F85" s="153" t="s">
-        <v>277</v>
-      </c>
-      <c r="G85" s="169" t="s">
-        <v>350</v>
-      </c>
-      <c r="H85" s="137">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B86" s="153">
-        <v>3</v>
-      </c>
-      <c r="C86" s="135" t="s">
-        <v>314</v>
-      </c>
-      <c r="D86" s="135" t="s">
-        <v>181</v>
-      </c>
-      <c r="E86" s="135" t="s">
-        <v>255</v>
-      </c>
-      <c r="F86" s="153" t="s">
-        <v>277</v>
-      </c>
-      <c r="G86" s="169" t="s">
-        <v>350</v>
-      </c>
-      <c r="H86" s="137">
-        <v>5000000</v>
-      </c>
-    </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B87" s="153">
-        <v>3</v>
-      </c>
-      <c r="C87" s="135" t="s">
-        <v>316</v>
-      </c>
-      <c r="D87" s="135" t="s">
-        <v>181</v>
-      </c>
-      <c r="E87" s="135" t="s">
-        <v>255</v>
-      </c>
-      <c r="F87" s="153" t="s">
-        <v>277</v>
-      </c>
-      <c r="G87" s="169" t="s">
-        <v>350</v>
-      </c>
-      <c r="H87" s="137">
-        <v>3500000</v>
-      </c>
-    </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B88" s="118">
-        <v>2</v>
-      </c>
-      <c r="C88" s="223" t="s">
-        <v>282</v>
-      </c>
-      <c r="D88" s="223" t="s">
-        <v>283</v>
-      </c>
-      <c r="E88" s="223" t="s">
-        <v>285</v>
-      </c>
-      <c r="F88" s="223" t="s">
-        <v>277</v>
-      </c>
-      <c r="G88" s="228" t="s">
-        <v>351</v>
-      </c>
-      <c r="H88" s="225">
-        <v>244180</v>
-      </c>
-    </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B89" s="118">
-        <v>2</v>
-      </c>
-      <c r="C89" s="223" t="s">
-        <v>11</v>
-      </c>
-      <c r="D89" s="223" t="s">
-        <v>288</v>
-      </c>
-      <c r="E89" s="223" t="s">
-        <v>289</v>
-      </c>
-      <c r="F89" s="223" t="s">
-        <v>277</v>
-      </c>
-      <c r="G89" s="228" t="s">
-        <v>351</v>
-      </c>
-      <c r="H89" s="225">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B90" s="118">
-        <v>2</v>
-      </c>
-      <c r="C90" s="223" t="s">
-        <v>6</v>
-      </c>
-      <c r="D90" s="223" t="s">
-        <v>181</v>
-      </c>
-      <c r="E90" s="223" t="s">
-        <v>443</v>
-      </c>
-      <c r="F90" s="223" t="s">
-        <v>277</v>
-      </c>
-      <c r="G90" s="228" t="s">
-        <v>351</v>
-      </c>
-      <c r="H90" s="225">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B91" s="118">
-        <v>2</v>
-      </c>
-      <c r="C91" s="223" t="s">
-        <v>325</v>
-      </c>
-      <c r="D91" s="223" t="s">
-        <v>438</v>
-      </c>
-      <c r="E91" s="223" t="s">
-        <v>448</v>
-      </c>
-      <c r="F91" s="223" t="s">
-        <v>277</v>
-      </c>
-      <c r="G91" s="228" t="s">
-        <v>351</v>
-      </c>
-      <c r="H91" s="225">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B92" s="118">
-        <v>2</v>
-      </c>
-      <c r="C92" s="118" t="s">
-        <v>456</v>
-      </c>
-      <c r="D92" s="118" t="s">
-        <v>438</v>
-      </c>
-      <c r="E92" s="118" t="s">
-        <v>444</v>
-      </c>
-      <c r="F92" s="118" t="s">
-        <v>277</v>
-      </c>
-      <c r="G92" s="229" t="s">
-        <v>351</v>
-      </c>
-      <c r="H92" s="120">
-        <v>3700000</v>
-      </c>
-    </row>
-    <row r="93" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B93" s="156"/>
-      <c r="C93" s="138"/>
-      <c r="D93" s="138"/>
-      <c r="E93" s="138"/>
-      <c r="G93" s="122" t="s">
-        <v>131</v>
-      </c>
-      <c r="H93" s="123">
-        <f>SUM(H60:H92)</f>
-        <v>38044297.609999999</v>
-      </c>
-    </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C95" s="138"/>
-    </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B98" s="118" t="s">
-        <v>473</v>
-      </c>
-      <c r="C98" s="224" t="s">
-        <v>167</v>
-      </c>
-      <c r="D98" s="223" t="s">
-        <v>441</v>
-      </c>
-      <c r="E98" s="224" t="s">
-        <v>445</v>
-      </c>
-      <c r="F98" s="223" t="s">
-        <v>454</v>
-      </c>
-      <c r="G98" s="227" t="s">
-        <v>455</v>
-      </c>
-      <c r="H98" s="225">
-        <v>6288356.7699999996</v>
-      </c>
-    </row>
-    <row r="166" spans="2:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="B166" s="188" t="s">
-        <v>465</v>
-      </c>
-      <c r="C166" s="138"/>
-      <c r="D166" s="138"/>
-      <c r="E166" s="138"/>
-      <c r="F166" s="138"/>
-      <c r="G166" s="138"/>
-      <c r="H166" s="139"/>
-    </row>
-    <row r="167" spans="2:8" ht="4.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B167" s="138"/>
-      <c r="C167" s="138"/>
-      <c r="D167" s="138"/>
-      <c r="E167" s="138"/>
-      <c r="F167" s="138"/>
-      <c r="G167" s="138"/>
-      <c r="H167" s="139"/>
-    </row>
-    <row r="168" spans="2:8" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B168" s="191" t="s">
-        <v>177</v>
-      </c>
-      <c r="C168" s="191" t="s">
-        <v>178</v>
-      </c>
-      <c r="D168" s="191" t="s">
-        <v>179</v>
-      </c>
-      <c r="E168" s="191" t="s">
-        <v>102</v>
-      </c>
-      <c r="F168" s="191" t="s">
-        <v>321</v>
-      </c>
-      <c r="G168" s="192" t="s">
-        <v>334</v>
-      </c>
-      <c r="H168" s="193" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="169" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B169" s="160">
-        <v>2</v>
-      </c>
-      <c r="C169" s="189" t="s">
-        <v>225</v>
-      </c>
-      <c r="D169" s="160"/>
-      <c r="E169" s="190" t="s">
-        <v>225</v>
-      </c>
-      <c r="F169" s="125"/>
-      <c r="G169" s="125"/>
-      <c r="H169" s="162">
-        <v>3000000</v>
-      </c>
-    </row>
-    <row r="170" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B170" s="135">
-        <v>2</v>
-      </c>
-      <c r="C170" s="158" t="s">
-        <v>225</v>
-      </c>
-      <c r="D170" s="135"/>
-      <c r="E170" s="159" t="s">
-        <v>225</v>
-      </c>
-      <c r="F170" s="118"/>
-      <c r="G170" s="170"/>
-      <c r="H170" s="137">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="171" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B171" s="135">
-        <v>2</v>
-      </c>
-      <c r="C171" s="158" t="s">
-        <v>149</v>
-      </c>
-      <c r="D171" s="135"/>
-      <c r="E171" s="136" t="s">
-        <v>226</v>
-      </c>
-      <c r="F171" s="118"/>
-      <c r="G171" s="170"/>
-      <c r="H171" s="137">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="172" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B172" s="135">
-        <v>2</v>
-      </c>
-      <c r="C172" s="158" t="s">
-        <v>227</v>
-      </c>
-      <c r="D172" s="135"/>
-      <c r="E172" s="144" t="s">
-        <v>228</v>
-      </c>
-      <c r="F172" s="118"/>
-      <c r="G172" s="170"/>
-      <c r="H172" s="137">
-        <v>309062.51</v>
-      </c>
-    </row>
-    <row r="173" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B173" s="135">
-        <v>2</v>
-      </c>
-      <c r="C173" s="158" t="s">
-        <v>229</v>
-      </c>
-      <c r="D173" s="135"/>
-      <c r="E173" s="136" t="s">
-        <v>230</v>
-      </c>
-      <c r="F173" s="118"/>
-      <c r="G173" s="170"/>
-      <c r="H173" s="137">
-        <v>493450</v>
-      </c>
-    </row>
-    <row r="174" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B174" s="135">
-        <v>2</v>
-      </c>
-      <c r="C174" s="158" t="s">
-        <v>229</v>
-      </c>
-      <c r="D174" s="135"/>
-      <c r="E174" s="136" t="s">
-        <v>231</v>
-      </c>
-      <c r="F174" s="118"/>
-      <c r="G174" s="170"/>
-      <c r="H174" s="137">
-        <v>993850</v>
-      </c>
-    </row>
-    <row r="175" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B175" s="135">
-        <v>2</v>
-      </c>
-      <c r="C175" s="158" t="s">
-        <v>232</v>
-      </c>
-      <c r="D175" s="135"/>
-      <c r="E175" s="144" t="s">
-        <v>233</v>
-      </c>
-      <c r="F175" s="118"/>
-      <c r="G175" s="170" t="s">
-        <v>344</v>
-      </c>
-      <c r="H175" s="137">
-        <v>415000</v>
-      </c>
-    </row>
-    <row r="176" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B176" s="135">
-        <v>2</v>
-      </c>
-      <c r="C176" s="158" t="s">
-        <v>13</v>
-      </c>
-      <c r="D176" s="135"/>
-      <c r="E176" s="136" t="s">
-        <v>234</v>
-      </c>
-      <c r="F176" s="118"/>
-      <c r="G176" s="170" t="s">
-        <v>344</v>
-      </c>
-      <c r="H176" s="137">
-        <v>276670.96999999997</v>
-      </c>
-    </row>
-    <row r="177" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B177" s="135">
-        <v>2</v>
-      </c>
-      <c r="C177" s="158" t="s">
-        <v>225</v>
-      </c>
-      <c r="D177" s="135"/>
-      <c r="E177" s="136" t="s">
-        <v>235</v>
-      </c>
-      <c r="F177" s="118"/>
-      <c r="G177" s="170"/>
-      <c r="H177" s="137">
-        <v>3000000</v>
-      </c>
-    </row>
-    <row r="178" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B178" s="135">
-        <v>2</v>
-      </c>
-      <c r="C178" s="158" t="s">
-        <v>4</v>
-      </c>
-      <c r="D178" s="135"/>
-      <c r="E178" s="144" t="s">
-        <v>236</v>
-      </c>
-      <c r="F178" s="118"/>
-      <c r="G178" s="194" t="s">
-        <v>345</v>
-      </c>
-      <c r="H178" s="182">
-        <v>3500000</v>
-      </c>
-    </row>
-    <row r="179" spans="2:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B179" s="131"/>
-      <c r="C179" s="131"/>
-      <c r="D179" s="131"/>
-      <c r="E179" s="131"/>
-      <c r="G179" s="195" t="s">
-        <v>131</v>
-      </c>
-      <c r="H179" s="196">
-        <f>SUM(H169:H178)</f>
-        <v>15488033.48</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="B2:H2" xr:uid="{F6024A49-039C-40F9-8650-18EBEB4FB8F7}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:H46">
-      <sortCondition ref="G2"/>
-    </sortState>
-  </autoFilter>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" scale="78" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BBA06B-C0D9-4AE9-AFA9-0D88C4129948}">
   <dimension ref="B1:J182"/>
   <sheetViews>
@@ -8910,13 +6167,13 @@
       <c r="B9" s="135">
         <v>1</v>
       </c>
-      <c r="C9" s="221" t="s">
+      <c r="C9" s="216" t="s">
         <v>431</v>
       </c>
       <c r="D9" s="163" t="s">
         <v>181</v>
       </c>
-      <c r="E9" s="221" t="s">
+      <c r="E9" s="216" t="s">
         <v>218</v>
       </c>
       <c r="F9" s="163" t="s">
@@ -8933,13 +6190,13 @@
       <c r="B10" s="135">
         <v>1</v>
       </c>
-      <c r="C10" s="221" t="s">
+      <c r="C10" s="216" t="s">
         <v>232</v>
       </c>
       <c r="D10" s="163" t="s">
         <v>434</v>
       </c>
-      <c r="E10" s="221" t="s">
+      <c r="E10" s="216" t="s">
         <v>435</v>
       </c>
       <c r="F10" s="163" t="s">
@@ -8948,7 +6205,7 @@
       <c r="G10" s="173" t="s">
         <v>343</v>
       </c>
-      <c r="H10" s="222">
+      <c r="H10" s="217">
         <v>450000</v>
       </c>
     </row>
@@ -9023,7 +6280,7 @@
       <c r="F16" s="135" t="s">
         <v>239</v>
       </c>
-      <c r="G16" s="215" t="s">
+      <c r="G16" s="210" t="s">
         <v>432</v>
       </c>
       <c r="H16" s="137">
@@ -9046,7 +6303,7 @@
       <c r="F17" s="135" t="s">
         <v>241</v>
       </c>
-      <c r="G17" s="215" t="s">
+      <c r="G17" s="210" t="s">
         <v>432</v>
       </c>
       <c r="H17" s="137">
@@ -9069,7 +6326,7 @@
       <c r="F18" s="135" t="s">
         <v>245</v>
       </c>
-      <c r="G18" s="215" t="s">
+      <c r="G18" s="210" t="s">
         <v>432</v>
       </c>
       <c r="H18" s="137">
@@ -9092,7 +6349,7 @@
       <c r="F19" s="135" t="s">
         <v>222</v>
       </c>
-      <c r="G19" s="215" t="s">
+      <c r="G19" s="210" t="s">
         <v>432</v>
       </c>
       <c r="H19" s="137">
@@ -9115,7 +6372,7 @@
       <c r="F20" s="135" t="s">
         <v>220</v>
       </c>
-      <c r="G20" s="215" t="s">
+      <c r="G20" s="210" t="s">
         <v>432</v>
       </c>
       <c r="H20" s="137">
@@ -9138,7 +6395,7 @@
       <c r="F21" s="135" t="s">
         <v>424</v>
       </c>
-      <c r="G21" s="215" t="s">
+      <c r="G21" s="210" t="s">
         <v>432</v>
       </c>
       <c r="H21" s="137">
@@ -9161,7 +6418,7 @@
       <c r="F22" s="135" t="s">
         <v>425</v>
       </c>
-      <c r="G22" s="215" t="s">
+      <c r="G22" s="210" t="s">
         <v>432</v>
       </c>
       <c r="H22" s="137">
@@ -9310,34 +6567,34 @@
       <c r="C30" s="147"/>
       <c r="D30" s="147"/>
       <c r="E30" s="147"/>
-      <c r="G30" s="216" t="s">
+      <c r="G30" s="211" t="s">
         <v>433</v>
       </c>
-      <c r="H30" s="217">
+      <c r="H30" s="212">
         <f>H11+H28</f>
         <v>27225938.489999998</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B35" s="220" t="s">
+      <c r="B35" s="215" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="4.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="37" spans="2:8" ht="15" x14ac:dyDescent="0.3">
-      <c r="B37" s="218" t="s">
+      <c r="B37" s="213" t="s">
         <v>177</v>
       </c>
-      <c r="C37" s="219" t="s">
+      <c r="C37" s="214" t="s">
         <v>178</v>
       </c>
-      <c r="D37" s="219" t="s">
+      <c r="D37" s="214" t="s">
         <v>179</v>
       </c>
-      <c r="E37" s="219" t="s">
+      <c r="E37" s="214" t="s">
         <v>102</v>
       </c>
-      <c r="F37" s="219" t="s">
+      <c r="F37" s="214" t="s">
         <v>103</v>
       </c>
       <c r="G37" s="149" t="s">
@@ -9363,7 +6620,7 @@
       <c r="F38" s="118" t="s">
         <v>451</v>
       </c>
-      <c r="G38" s="215" t="s">
+      <c r="G38" s="210" t="s">
         <v>432</v>
       </c>
       <c r="H38" s="120">
@@ -9386,7 +6643,7 @@
       <c r="F39" s="118" t="s">
         <v>452</v>
       </c>
-      <c r="G39" s="226" t="s">
+      <c r="G39" s="221" t="s">
         <v>455</v>
       </c>
       <c r="H39" s="120">
@@ -9409,7 +6666,7 @@
       <c r="F40" s="118" t="s">
         <v>449</v>
       </c>
-      <c r="G40" s="226" t="s">
+      <c r="G40" s="221" t="s">
         <v>455</v>
       </c>
       <c r="H40" s="120">
@@ -9432,7 +6689,7 @@
       <c r="F41" s="118" t="s">
         <v>253</v>
       </c>
-      <c r="G41" s="226" t="s">
+      <c r="G41" s="221" t="s">
         <v>455</v>
       </c>
       <c r="H41" s="120">
@@ -9455,7 +6712,7 @@
       <c r="F42" s="118" t="s">
         <v>256</v>
       </c>
-      <c r="G42" s="226" t="s">
+      <c r="G42" s="221" t="s">
         <v>455</v>
       </c>
       <c r="H42" s="120">
@@ -9478,7 +6735,7 @@
       <c r="F43" s="118" t="s">
         <v>330</v>
       </c>
-      <c r="G43" s="226" t="s">
+      <c r="G43" s="221" t="s">
         <v>455</v>
       </c>
       <c r="H43" s="120">
@@ -9501,7 +6758,7 @@
       <c r="F44" s="118" t="s">
         <v>261</v>
       </c>
-      <c r="G44" s="226" t="s">
+      <c r="G44" s="221" t="s">
         <v>455</v>
       </c>
       <c r="H44" s="120">
@@ -9524,7 +6781,7 @@
       <c r="F45" s="118" t="s">
         <v>291</v>
       </c>
-      <c r="G45" s="226" t="s">
+      <c r="G45" s="221" t="s">
         <v>455</v>
       </c>
       <c r="H45" s="120">
@@ -9547,7 +6804,7 @@
       <c r="F46" s="118" t="s">
         <v>332</v>
       </c>
-      <c r="G46" s="226" t="s">
+      <c r="G46" s="221" t="s">
         <v>455</v>
       </c>
       <c r="H46" s="120">
@@ -9570,7 +6827,7 @@
       <c r="F47" s="118" t="s">
         <v>453</v>
       </c>
-      <c r="G47" s="226" t="s">
+      <c r="G47" s="221" t="s">
         <v>455</v>
       </c>
       <c r="H47" s="120">
@@ -9593,7 +6850,7 @@
       <c r="F48" s="118" t="s">
         <v>265</v>
       </c>
-      <c r="G48" s="226" t="s">
+      <c r="G48" s="221" t="s">
         <v>455</v>
       </c>
       <c r="H48" s="120">
@@ -9616,7 +6873,7 @@
       <c r="F49" s="118" t="s">
         <v>268</v>
       </c>
-      <c r="G49" s="226" t="s">
+      <c r="G49" s="221" t="s">
         <v>455</v>
       </c>
       <c r="H49" s="120">
@@ -9639,7 +6896,7 @@
       <c r="F50" s="118" t="s">
         <v>333</v>
       </c>
-      <c r="G50" s="226" t="s">
+      <c r="G50" s="221" t="s">
         <v>455</v>
       </c>
       <c r="H50" s="120">
@@ -9662,7 +6919,7 @@
       <c r="F51" s="118" t="s">
         <v>271</v>
       </c>
-      <c r="G51" s="226" t="s">
+      <c r="G51" s="221" t="s">
         <v>455</v>
       </c>
       <c r="H51" s="120">
@@ -9670,140 +6927,140 @@
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B52" s="223">
+      <c r="B52" s="218">
         <v>2</v>
       </c>
-      <c r="C52" s="224" t="s">
+      <c r="C52" s="219" t="s">
         <v>457</v>
       </c>
-      <c r="D52" s="223" t="s">
+      <c r="D52" s="218" t="s">
         <v>439</v>
       </c>
-      <c r="E52" s="224" t="s">
+      <c r="E52" s="219" t="s">
         <v>458</v>
       </c>
-      <c r="F52" s="223" t="s">
+      <c r="F52" s="218" t="s">
         <v>459</v>
       </c>
-      <c r="G52" s="227" t="s">
+      <c r="G52" s="222" t="s">
         <v>455</v>
       </c>
-      <c r="H52" s="225">
+      <c r="H52" s="220">
         <v>800000</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B53" s="223">
+      <c r="B53" s="218">
         <v>2</v>
       </c>
-      <c r="C53" s="224" t="s">
+      <c r="C53" s="219" t="s">
         <v>167</v>
       </c>
-      <c r="D53" s="223" t="s">
+      <c r="D53" s="218" t="s">
         <v>441</v>
       </c>
-      <c r="E53" s="224" t="s">
+      <c r="E53" s="219" t="s">
         <v>445</v>
       </c>
-      <c r="F53" s="223" t="s">
+      <c r="F53" s="218" t="s">
         <v>454</v>
       </c>
-      <c r="G53" s="227" t="s">
+      <c r="G53" s="222" t="s">
         <v>455</v>
       </c>
-      <c r="H53" s="225">
+      <c r="H53" s="220">
         <v>6288356.7699999996</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="223">
+      <c r="B54" s="218">
         <v>2</v>
       </c>
-      <c r="C54" s="224" t="s">
+      <c r="C54" s="219" t="s">
         <v>282</v>
       </c>
-      <c r="D54" s="223" t="s">
+      <c r="D54" s="218" t="s">
         <v>283</v>
       </c>
-      <c r="E54" s="224" t="s">
+      <c r="E54" s="219" t="s">
         <v>285</v>
       </c>
-      <c r="F54" s="223" t="s">
+      <c r="F54" s="218" t="s">
         <v>277</v>
       </c>
-      <c r="G54" s="228" t="s">
+      <c r="G54" s="223" t="s">
         <v>351</v>
       </c>
-      <c r="H54" s="225">
+      <c r="H54" s="220">
         <v>244180</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B55" s="223">
+      <c r="B55" s="218">
         <v>2</v>
       </c>
-      <c r="C55" s="224" t="s">
+      <c r="C55" s="219" t="s">
         <v>11</v>
       </c>
-      <c r="D55" s="223" t="s">
+      <c r="D55" s="218" t="s">
         <v>288</v>
       </c>
-      <c r="E55" s="224" t="s">
+      <c r="E55" s="219" t="s">
         <v>289</v>
       </c>
-      <c r="F55" s="223" t="s">
+      <c r="F55" s="218" t="s">
         <v>277</v>
       </c>
-      <c r="G55" s="228" t="s">
+      <c r="G55" s="223" t="s">
         <v>351</v>
       </c>
-      <c r="H55" s="225">
+      <c r="H55" s="220">
         <v>2000000</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B56" s="223">
+      <c r="B56" s="218">
         <v>2</v>
       </c>
-      <c r="C56" s="224" t="s">
+      <c r="C56" s="219" t="s">
         <v>6</v>
       </c>
-      <c r="D56" s="223" t="s">
+      <c r="D56" s="218" t="s">
         <v>181</v>
       </c>
-      <c r="E56" s="224" t="s">
+      <c r="E56" s="219" t="s">
         <v>443</v>
       </c>
-      <c r="F56" s="223" t="s">
+      <c r="F56" s="218" t="s">
         <v>277</v>
       </c>
-      <c r="G56" s="228" t="s">
+      <c r="G56" s="223" t="s">
         <v>351</v>
       </c>
-      <c r="H56" s="225">
+      <c r="H56" s="220">
         <v>1500000</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B57" s="223">
+      <c r="B57" s="218">
         <v>2</v>
       </c>
-      <c r="C57" s="224" t="s">
+      <c r="C57" s="219" t="s">
         <v>325</v>
       </c>
-      <c r="D57" s="223" t="s">
+      <c r="D57" s="218" t="s">
         <v>438</v>
       </c>
-      <c r="E57" s="224" t="s">
+      <c r="E57" s="219" t="s">
         <v>448</v>
       </c>
-      <c r="F57" s="223" t="s">
+      <c r="F57" s="218" t="s">
         <v>277</v>
       </c>
-      <c r="G57" s="228" t="s">
+      <c r="G57" s="223" t="s">
         <v>351</v>
       </c>
-      <c r="H57" s="225">
+      <c r="H57" s="220">
         <v>150000</v>
       </c>
     </row>
@@ -9823,7 +7080,7 @@
       <c r="F58" s="118" t="s">
         <v>277</v>
       </c>
-      <c r="G58" s="229" t="s">
+      <c r="G58" s="224" t="s">
         <v>351</v>
       </c>
       <c r="H58" s="120">
@@ -9846,7 +7103,7 @@
       <c r="F59" s="118" t="s">
         <v>259</v>
       </c>
-      <c r="G59" s="229" t="s">
+      <c r="G59" s="224" t="s">
         <v>351</v>
       </c>
       <c r="H59" s="120">
@@ -9869,7 +7126,7 @@
       <c r="F60" s="118" t="s">
         <v>450</v>
       </c>
-      <c r="G60" s="229" t="s">
+      <c r="G60" s="224" t="s">
         <v>351</v>
       </c>
       <c r="H60" s="120">
@@ -10850,7 +8107,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F72DB2B-AFEE-4D9E-95BA-606A57A4FED3}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -11031,13 +8288,13 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="135"/>
-      <c r="C12" s="221" t="s">
+      <c r="C12" s="216" t="s">
         <v>232</v>
       </c>
       <c r="D12" s="163" t="s">
         <v>434</v>
       </c>
-      <c r="E12" s="221" t="s">
+      <c r="E12" s="216" t="s">
         <v>435</v>
       </c>
       <c r="F12" s="163" t="s">
@@ -11046,19 +8303,19 @@
       <c r="G12" s="173" t="s">
         <v>343</v>
       </c>
-      <c r="H12" s="222">
+      <c r="H12" s="217">
         <v>450000</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="135"/>
-      <c r="C13" s="221" t="s">
+      <c r="C13" s="216" t="s">
         <v>431</v>
       </c>
       <c r="D13" s="163" t="s">
         <v>181</v>
       </c>
-      <c r="E13" s="221" t="s">
+      <c r="E13" s="216" t="s">
         <v>218</v>
       </c>
       <c r="F13" s="163" t="s">
@@ -11085,7 +8342,7 @@
       <c r="F14" s="118" t="s">
         <v>451</v>
       </c>
-      <c r="G14" s="215" t="s">
+      <c r="G14" s="210" t="s">
         <v>432</v>
       </c>
       <c r="H14" s="120">
@@ -11106,7 +8363,7 @@
       <c r="F15" s="135" t="s">
         <v>220</v>
       </c>
-      <c r="G15" s="215" t="s">
+      <c r="G15" s="210" t="s">
         <v>432</v>
       </c>
       <c r="H15" s="137">
@@ -11127,7 +8384,7 @@
       <c r="F16" s="135" t="s">
         <v>222</v>
       </c>
-      <c r="G16" s="215" t="s">
+      <c r="G16" s="210" t="s">
         <v>432</v>
       </c>
       <c r="H16" s="137">
@@ -11150,7 +8407,7 @@
       <c r="F17" s="118" t="s">
         <v>452</v>
       </c>
-      <c r="G17" s="226" t="s">
+      <c r="G17" s="221" t="s">
         <v>455</v>
       </c>
       <c r="H17" s="120">
@@ -11173,7 +8430,7 @@
       <c r="F18" s="118" t="s">
         <v>449</v>
       </c>
-      <c r="G18" s="226" t="s">
+      <c r="G18" s="221" t="s">
         <v>455</v>
       </c>
       <c r="H18" s="120">
@@ -11196,7 +8453,7 @@
       <c r="F19" s="118" t="s">
         <v>253</v>
       </c>
-      <c r="G19" s="226" t="s">
+      <c r="G19" s="221" t="s">
         <v>455</v>
       </c>
       <c r="H19" s="120">
@@ -11219,7 +8476,7 @@
       <c r="F20" s="118" t="s">
         <v>256</v>
       </c>
-      <c r="G20" s="226" t="s">
+      <c r="G20" s="221" t="s">
         <v>455</v>
       </c>
       <c r="H20" s="120">
@@ -11242,7 +8499,7 @@
       <c r="F21" s="118" t="s">
         <v>330</v>
       </c>
-      <c r="G21" s="226" t="s">
+      <c r="G21" s="221" t="s">
         <v>455</v>
       </c>
       <c r="H21" s="120">
@@ -11265,7 +8522,7 @@
       <c r="F22" s="118" t="s">
         <v>261</v>
       </c>
-      <c r="G22" s="226" t="s">
+      <c r="G22" s="221" t="s">
         <v>455</v>
       </c>
       <c r="H22" s="120">
@@ -11276,22 +8533,22 @@
       <c r="B23" s="135">
         <v>1</v>
       </c>
-      <c r="C23" s="224" t="s">
+      <c r="C23" s="219" t="s">
         <v>457</v>
       </c>
-      <c r="D23" s="223" t="s">
+      <c r="D23" s="218" t="s">
         <v>439</v>
       </c>
-      <c r="E23" s="224" t="s">
+      <c r="E23" s="219" t="s">
         <v>458</v>
       </c>
-      <c r="F23" s="223" t="s">
+      <c r="F23" s="218" t="s">
         <v>459</v>
       </c>
-      <c r="G23" s="227" t="s">
+      <c r="G23" s="222" t="s">
         <v>455</v>
       </c>
-      <c r="H23" s="225">
+      <c r="H23" s="220">
         <v>800000</v>
       </c>
     </row>
@@ -11311,7 +8568,7 @@
       <c r="F24" s="118" t="s">
         <v>291</v>
       </c>
-      <c r="G24" s="226" t="s">
+      <c r="G24" s="221" t="s">
         <v>455</v>
       </c>
       <c r="H24" s="120">
@@ -11334,7 +8591,7 @@
       <c r="F25" s="118" t="s">
         <v>332</v>
       </c>
-      <c r="G25" s="226" t="s">
+      <c r="G25" s="221" t="s">
         <v>455</v>
       </c>
       <c r="H25" s="120">
@@ -11357,7 +8614,7 @@
       <c r="F26" s="118" t="s">
         <v>453</v>
       </c>
-      <c r="G26" s="226" t="s">
+      <c r="G26" s="221" t="s">
         <v>455</v>
       </c>
       <c r="H26" s="120">
@@ -11380,7 +8637,7 @@
       <c r="F27" s="118" t="s">
         <v>265</v>
       </c>
-      <c r="G27" s="226" t="s">
+      <c r="G27" s="221" t="s">
         <v>455</v>
       </c>
       <c r="H27" s="120">
@@ -11403,7 +8660,7 @@
       <c r="F28" s="118" t="s">
         <v>268</v>
       </c>
-      <c r="G28" s="226" t="s">
+      <c r="G28" s="221" t="s">
         <v>455</v>
       </c>
       <c r="H28" s="120">
@@ -11426,7 +8683,7 @@
       <c r="F29" s="118" t="s">
         <v>333</v>
       </c>
-      <c r="G29" s="226" t="s">
+      <c r="G29" s="221" t="s">
         <v>455</v>
       </c>
       <c r="H29" s="120">
@@ -11449,7 +8706,7 @@
       <c r="F30" s="118" t="s">
         <v>271</v>
       </c>
-      <c r="G30" s="226" t="s">
+      <c r="G30" s="221" t="s">
         <v>455</v>
       </c>
       <c r="H30" s="120">
@@ -11472,7 +8729,7 @@
       <c r="F31" s="135" t="s">
         <v>182</v>
       </c>
-      <c r="G31" s="230" t="s">
+      <c r="G31" s="225" t="s">
         <v>349</v>
       </c>
       <c r="H31" s="137">
@@ -11495,7 +8752,7 @@
       <c r="F32" s="135" t="s">
         <v>424</v>
       </c>
-      <c r="G32" s="230" t="s">
+      <c r="G32" s="225" t="s">
         <v>349</v>
       </c>
       <c r="H32" s="137">
@@ -11518,7 +8775,7 @@
       <c r="F33" s="135" t="s">
         <v>425</v>
       </c>
-      <c r="G33" s="230" t="s">
+      <c r="G33" s="225" t="s">
         <v>349</v>
       </c>
       <c r="H33" s="137">
@@ -11541,7 +8798,7 @@
       <c r="F34" s="135" t="s">
         <v>198</v>
       </c>
-      <c r="G34" s="230" t="s">
+      <c r="G34" s="225" t="s">
         <v>349</v>
       </c>
       <c r="H34" s="137">
@@ -11564,7 +8821,7 @@
       <c r="F35" s="135" t="s">
         <v>204</v>
       </c>
-      <c r="G35" s="230" t="s">
+      <c r="G35" s="225" t="s">
         <v>349</v>
       </c>
       <c r="H35" s="137">
@@ -11587,7 +8844,7 @@
       <c r="F36" s="135" t="s">
         <v>207</v>
       </c>
-      <c r="G36" s="230" t="s">
+      <c r="G36" s="225" t="s">
         <v>349</v>
       </c>
       <c r="H36" s="137">
@@ -11595,7 +8852,7 @@
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B37" s="223">
+      <c r="B37" s="218">
         <v>2</v>
       </c>
       <c r="C37" s="136" t="s">
@@ -11610,7 +8867,7 @@
       <c r="F37" s="135" t="s">
         <v>428</v>
       </c>
-      <c r="G37" s="230" t="s">
+      <c r="G37" s="225" t="s">
         <v>349</v>
       </c>
       <c r="H37" s="137">
@@ -11618,76 +8875,76 @@
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B38" s="223">
+      <c r="B38" s="218">
         <v>2</v>
       </c>
-      <c r="C38" s="224" t="s">
+      <c r="C38" s="219" t="s">
         <v>6</v>
       </c>
-      <c r="D38" s="223" t="s">
+      <c r="D38" s="218" t="s">
         <v>181</v>
       </c>
-      <c r="E38" s="224" t="s">
+      <c r="E38" s="219" t="s">
         <v>443</v>
       </c>
-      <c r="F38" s="223" t="s">
+      <c r="F38" s="218" t="s">
         <v>277</v>
       </c>
-      <c r="G38" s="228" t="s">
+      <c r="G38" s="223" t="s">
         <v>351</v>
       </c>
-      <c r="H38" s="225">
+      <c r="H38" s="220">
         <v>1500000</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B39" s="223">
+      <c r="B39" s="218">
         <v>2</v>
       </c>
-      <c r="C39" s="224" t="s">
+      <c r="C39" s="219" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="223" t="s">
+      <c r="D39" s="218" t="s">
         <v>288</v>
       </c>
-      <c r="E39" s="224" t="s">
+      <c r="E39" s="219" t="s">
         <v>289</v>
       </c>
-      <c r="F39" s="223" t="s">
+      <c r="F39" s="218" t="s">
         <v>277</v>
       </c>
-      <c r="G39" s="228" t="s">
+      <c r="G39" s="223" t="s">
         <v>351</v>
       </c>
-      <c r="H39" s="225">
+      <c r="H39" s="220">
         <v>2000000</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B40" s="223">
+      <c r="B40" s="218">
         <v>2</v>
       </c>
-      <c r="C40" s="224" t="s">
+      <c r="C40" s="219" t="s">
         <v>325</v>
       </c>
-      <c r="D40" s="223" t="s">
+      <c r="D40" s="218" t="s">
         <v>438</v>
       </c>
-      <c r="E40" s="224" t="s">
+      <c r="E40" s="219" t="s">
         <v>448</v>
       </c>
-      <c r="F40" s="223" t="s">
+      <c r="F40" s="218" t="s">
         <v>277</v>
       </c>
-      <c r="G40" s="228" t="s">
+      <c r="G40" s="223" t="s">
         <v>351</v>
       </c>
-      <c r="H40" s="225">
+      <c r="H40" s="220">
         <v>150000</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B41" s="223">
+      <c r="B41" s="218">
         <v>2</v>
       </c>
       <c r="C41" s="119" t="s">
@@ -11702,7 +8959,7 @@
       <c r="F41" s="118" t="s">
         <v>277</v>
       </c>
-      <c r="G41" s="229" t="s">
+      <c r="G41" s="224" t="s">
         <v>351</v>
       </c>
       <c r="H41" s="120">
@@ -11725,7 +8982,7 @@
       <c r="F42" s="118" t="s">
         <v>259</v>
       </c>
-      <c r="G42" s="229" t="s">
+      <c r="G42" s="224" t="s">
         <v>351</v>
       </c>
       <c r="H42" s="120">
@@ -11748,7 +9005,7 @@
       <c r="F43" s="118" t="s">
         <v>450</v>
       </c>
-      <c r="G43" s="229" t="s">
+      <c r="G43" s="224" t="s">
         <v>351</v>
       </c>
       <c r="H43" s="120">
@@ -11759,22 +9016,22 @@
       <c r="B44" s="118">
         <v>2</v>
       </c>
-      <c r="C44" s="224" t="s">
+      <c r="C44" s="219" t="s">
         <v>282</v>
       </c>
-      <c r="D44" s="223" t="s">
+      <c r="D44" s="218" t="s">
         <v>283</v>
       </c>
-      <c r="E44" s="224" t="s">
+      <c r="E44" s="219" t="s">
         <v>285</v>
       </c>
-      <c r="F44" s="223" t="s">
+      <c r="F44" s="218" t="s">
         <v>277</v>
       </c>
-      <c r="G44" s="228" t="s">
+      <c r="G44" s="223" t="s">
         <v>351</v>
       </c>
-      <c r="H44" s="225">
+      <c r="H44" s="220">
         <v>244180</v>
       </c>
     </row>
@@ -12758,7 +10015,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F21558F0-46EA-4895-BE24-9B770C758BE3}">
   <dimension ref="D4:H55"/>
   <sheetViews>
@@ -13302,7 +10559,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A9B1528-B7F0-4C7B-B99D-19AB68DB1575}">
   <dimension ref="E8:G19"/>
   <sheetViews>
@@ -13430,7 +10687,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E01437-E0CC-44C3-AF36-88627C9E88B4}">
   <dimension ref="H6:I17"/>
   <sheetViews>
@@ -13468,7 +10725,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5FCD86-842C-4291-9DC5-CFEAB2635B14}">
   <dimension ref="C2:H36"/>
   <sheetViews>
@@ -13712,7 +10969,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A70C44-3FF4-4DC5-B737-DE3821DE1300}">
   <dimension ref="C2:H46"/>
   <sheetViews>
@@ -13990,10 +11247,10 @@
     <row r="5" spans="7:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="7:10" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="7" spans="7:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H7" s="238" t="s">
+      <c r="H7" s="239" t="s">
         <v>66</v>
       </c>
-      <c r="I7" s="239"/>
+      <c r="I7" s="240"/>
     </row>
     <row r="8" spans="7:10" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="7:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -14222,10 +11479,10 @@
     <row r="26" spans="7:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="7:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="7:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H28" s="238" t="s">
+      <c r="H28" s="239" t="s">
         <v>65</v>
       </c>
-      <c r="I28" s="239"/>
+      <c r="I28" s="240"/>
     </row>
     <row r="29" spans="7:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G29" s="52" t="s">
@@ -14558,10 +11815,10 @@
     <row r="5" spans="6:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="6:9" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="7" spans="6:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G7" s="238" t="s">
+      <c r="G7" s="239" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="239"/>
+      <c r="H7" s="240"/>
     </row>
     <row r="8" spans="6:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="6:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -14683,10 +11940,10 @@
     <row r="24" spans="6:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="6:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="26" spans="6:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G26" s="238" t="s">
+      <c r="G26" s="239" t="s">
         <v>65</v>
       </c>
-      <c r="H26" s="239"/>
+      <c r="H26" s="240"/>
     </row>
     <row r="27" spans="6:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F27" s="52" t="s">
@@ -15886,10 +13143,10 @@
   <sheetData>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="D2"/>
-      <c r="F2" s="240" t="s">
+      <c r="F2" s="241" t="s">
         <v>171</v>
       </c>
-      <c r="G2" s="240"/>
+      <c r="G2" s="241"/>
     </row>
     <row r="3" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="D3"/>

--- a/geralobras.xlsx
+++ b/geralobras.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robso\OneDrive\Documentos\Coorporativo\copilot 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213B52F1-559C-4689-80CD-FA0F82CDC3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E55C8D-CFB6-477A-B6FB-ECC1F10C67F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="9" activeTab="9" xr2:uid="{85042D99-AF67-46D0-BBD8-7613075613E7}"/>
   </bookViews>
@@ -5361,7 +5361,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
